--- a/vgp_database/Stoddard_Mountain_laccolith.xlsx
+++ b/vgp_database/Stoddard_Mountain_laccolith.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="101">
   <si>
     <t>Name:</t>
   </si>
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
-  </si>
-  <si>
-    <t>R2.2</t>
+    <t>R2a</t>
+  </si>
+  <si>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
-  </si>
-  <si>
-    <t>R5.2</t>
+    <t>R5a</t>
+  </si>
+  <si>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -252,6 +252,9 @@
     <t>SM13</t>
   </si>
   <si>
+    <t>VGP lon appears anomalous relative to sampling area and direction (discarded).</t>
+  </si>
+  <si>
     <t>SM14</t>
   </si>
   <si>
@@ -289,6 +292,9 @@
   </si>
   <si>
     <t>SM28</t>
+  </si>
+  <si>
+    <t>VGP lon appears anomalous relative to sampling area and direction (discarded). chilled zone directions omitted because they fall far from reference direction</t>
   </si>
   <si>
     <t>SM31</t>
@@ -368,7 +374,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,14 +399,40 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4285F4"/>
+        <bgColor rgb="FF4285F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -431,7 +463,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -467,8 +499,14 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -493,6 +531,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -520,6 +564,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -1275,7 +1322,7 @@
       <c r="AK8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL8" s="10" t="s">
+      <c r="AL8" s="24" t="s">
         <v>40</v>
       </c>
       <c r="AM8" s="3"/>
@@ -1288,31 +1335,35 @@
       <c r="A9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="25">
+      <c r="C9" s="26">
+        <v>37.527424208091</v>
+      </c>
+      <c r="D9" s="26">
+        <v>-113.409498649763</v>
+      </c>
+      <c r="E9" s="27">
         <v>6.0</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="28">
         <v>340.6</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="28">
         <v>64.6</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="29">
         <v>97.61</v>
       </c>
       <c r="I9" s="11">
         <v>6.8</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="28">
+      <c r="K9" s="30">
         <v>73.1</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="30">
         <v>-165.3</v>
       </c>
       <c r="M9" s="14"/>
@@ -1358,18 +1409,18 @@
       <c r="AG9" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH9" s="29"/>
+      <c r="AH9" s="31"/>
       <c r="AI9" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK9" s="30"/>
+      <c r="AK9" s="32"/>
       <c r="AL9" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM9" s="31"/>
+      <c r="AM9" s="33"/>
       <c r="AO9" s="3"/>
       <c r="AP9" s="11"/>
       <c r="AQ9" s="11"/>
@@ -1378,31 +1429,35 @@
       <c r="A10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="25">
+      <c r="C10" s="26">
+        <v>37.384803207407</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-113.76567526865</v>
+      </c>
+      <c r="E10" s="27">
         <v>7.0</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="28">
         <v>340.7</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="28">
         <v>60.9</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="29">
         <v>125.73</v>
       </c>
       <c r="I10" s="11">
         <v>5.4</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="28">
+      <c r="K10" s="30">
         <v>74.5</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="30">
         <v>179.3</v>
       </c>
       <c r="M10" s="12"/>
@@ -1448,55 +1503,59 @@
       <c r="AG10" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH10" s="29"/>
+      <c r="AH10" s="31"/>
       <c r="AI10" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK10" s="31"/>
+      <c r="AK10" s="33"/>
       <c r="AL10" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM10" s="31"/>
+      <c r="AM10" s="33"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="25">
+      <c r="C11" s="26">
+        <v>37.5022931027515</v>
+      </c>
+      <c r="D11" s="26">
+        <v>-113.494198551651</v>
+      </c>
+      <c r="E11" s="27">
         <v>5.0</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="28">
         <v>348.9</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="28">
         <v>65.7</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="29">
         <v>89.85</v>
       </c>
       <c r="I11" s="11">
         <v>8.1</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="28">
+      <c r="K11" s="30">
         <v>76.8</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="30">
         <v>212.1</v>
       </c>
       <c r="M11" s="12"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
       <c r="R11" s="15">
         <v>20.2</v>
       </c>
@@ -1524,29 +1583,29 @@
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
-      <c r="AC11" s="29"/>
+      <c r="AC11" s="31"/>
       <c r="AD11" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE11" s="29"/>
+      <c r="AE11" s="31"/>
       <c r="AF11" s="11">
         <v>0.0</v>
       </c>
       <c r="AG11" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH11" s="29"/>
+      <c r="AH11" s="31"/>
       <c r="AI11" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK11" s="31"/>
+      <c r="AK11" s="33"/>
       <c r="AL11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM11" s="31"/>
+      <c r="AM11" s="33"/>
       <c r="AO11" s="3"/>
       <c r="AP11" s="11"/>
       <c r="AQ11" s="11"/>
@@ -1555,38 +1614,42 @@
       <c r="A12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="25">
+      <c r="C12" s="26">
+        <v>37.5469297993319</v>
+      </c>
+      <c r="D12" s="26">
+        <v>-113.310549240437</v>
+      </c>
+      <c r="E12" s="27">
         <v>5.0</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="28">
         <v>357.1</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="28">
         <v>52.2</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="29">
         <v>116.45</v>
       </c>
       <c r="I12" s="11">
         <v>7.1</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="28">
+      <c r="K12" s="30">
         <v>84.7</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="30">
         <v>94.1</v>
       </c>
       <c r="M12" s="12"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
       <c r="R12" s="15">
         <v>20.2</v>
       </c>
@@ -1614,29 +1677,29 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="29"/>
+      <c r="AC12" s="31"/>
       <c r="AD12" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE12" s="29"/>
+      <c r="AE12" s="31"/>
       <c r="AF12" s="11">
         <v>0.0</v>
       </c>
       <c r="AG12" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH12" s="29"/>
+      <c r="AH12" s="31"/>
       <c r="AI12" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK12" s="31"/>
+      <c r="AK12" s="33"/>
       <c r="AL12" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM12" s="31"/>
+      <c r="AM12" s="33"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
@@ -1645,38 +1708,42 @@
       <c r="A13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="25">
+      <c r="C13" s="26">
+        <v>37.6171513446438</v>
+      </c>
+      <c r="D13" s="26">
+        <v>-114.38049487762</v>
+      </c>
+      <c r="E13" s="27">
         <v>6.0</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="28">
         <v>0.9</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="28">
         <v>54.8</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="29">
         <v>97.05</v>
       </c>
       <c r="I13" s="11">
         <v>6.8</v>
       </c>
       <c r="J13" s="14"/>
-      <c r="K13" s="28">
+      <c r="K13" s="30">
         <v>87.6</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="30">
         <v>47.8</v>
       </c>
       <c r="M13" s="12"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
       <c r="R13" s="15">
         <v>20.2</v>
       </c>
@@ -1704,29 +1771,29 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="19"/>
-      <c r="AC13" s="29"/>
+      <c r="AC13" s="31"/>
       <c r="AD13" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE13" s="29"/>
+      <c r="AE13" s="31"/>
       <c r="AF13" s="11">
         <v>0.0</v>
       </c>
       <c r="AG13" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH13" s="29"/>
+      <c r="AH13" s="31"/>
       <c r="AI13" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK13" s="31"/>
+      <c r="AK13" s="33"/>
       <c r="AL13" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM13" s="31"/>
+      <c r="AM13" s="33"/>
       <c r="AO13" s="3"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="11"/>
@@ -1735,38 +1802,42 @@
       <c r="A14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="25">
+      <c r="C14" s="26">
+        <v>37.4494144192145</v>
+      </c>
+      <c r="D14" s="26">
+        <v>-113.436584865978</v>
+      </c>
+      <c r="E14" s="27">
         <v>6.0</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="28">
         <v>179.3</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="28">
         <v>-68.9</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="29">
         <v>73.95</v>
       </c>
       <c r="I14" s="11">
         <v>7.8</v>
       </c>
       <c r="J14" s="14"/>
-      <c r="K14" s="28">
+      <c r="K14" s="30">
         <v>-75.1</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="30">
         <v>64.9</v>
       </c>
       <c r="M14" s="12"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
       <c r="R14" s="15">
         <v>20.2</v>
       </c>
@@ -1794,29 +1865,29 @@
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
       <c r="AB14" s="19"/>
-      <c r="AC14" s="29"/>
+      <c r="AC14" s="31"/>
       <c r="AD14" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE14" s="29"/>
+      <c r="AE14" s="31"/>
       <c r="AF14" s="11">
         <v>0.0</v>
       </c>
       <c r="AG14" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH14" s="29"/>
+      <c r="AH14" s="31"/>
       <c r="AI14" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK14" s="31"/>
+      <c r="AK14" s="33"/>
       <c r="AL14" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM14" s="31"/>
+      <c r="AM14" s="33"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="11"/>
       <c r="AQ14" s="11"/>
@@ -1825,38 +1896,42 @@
       <c r="A15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="25">
+      <c r="C15" s="26">
+        <v>37.5668157095442</v>
+      </c>
+      <c r="D15" s="26">
+        <v>-113.326699227132</v>
+      </c>
+      <c r="E15" s="27">
         <v>6.0</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="28">
         <v>181.2</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="28">
         <v>21.1</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="29">
         <v>20.7</v>
       </c>
       <c r="I15" s="11">
         <v>15.1</v>
       </c>
       <c r="J15" s="14"/>
-      <c r="K15" s="28">
+      <c r="K15" s="30">
         <v>-41.5</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="30">
         <v>-114.9</v>
       </c>
       <c r="M15" s="12"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
       <c r="R15" s="15">
         <v>20.2</v>
       </c>
@@ -1884,11 +1959,11 @@
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
-      <c r="AC15" s="29"/>
+      <c r="AC15" s="31"/>
       <c r="AD15" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE15" s="29"/>
+      <c r="AE15" s="31"/>
       <c r="AF15" s="13">
         <v>1.0</v>
       </c>
@@ -1904,13 +1979,13 @@
       <c r="AJ15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK15" s="32" t="s">
+      <c r="AK15" s="34" t="s">
         <v>72</v>
       </c>
       <c r="AL15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM15" s="31"/>
+      <c r="AM15" s="33"/>
       <c r="AO15" s="3"/>
       <c r="AP15" s="11"/>
       <c r="AQ15" s="11"/>
@@ -1919,38 +1994,42 @@
       <c r="A16" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="25">
+      <c r="C16" s="26">
+        <v>37.6117113865027</v>
+      </c>
+      <c r="D16" s="26">
+        <v>-113.345032896557</v>
+      </c>
+      <c r="E16" s="27">
         <v>5.0</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="28">
         <v>180.6</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="28">
         <v>13.0</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="29">
         <v>37.15</v>
       </c>
       <c r="I16" s="11">
         <v>12.7</v>
       </c>
       <c r="J16" s="14"/>
-      <c r="K16" s="28">
+      <c r="K16" s="30">
         <v>-45.8</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="30">
         <v>-114.2</v>
       </c>
       <c r="M16" s="12"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
       <c r="R16" s="15">
         <v>20.2</v>
       </c>
@@ -1978,11 +2057,11 @@
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="29"/>
+      <c r="AC16" s="31"/>
       <c r="AD16" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE16" s="29"/>
+      <c r="AE16" s="31"/>
       <c r="AF16" s="13">
         <v>1.0</v>
       </c>
@@ -1998,13 +2077,13 @@
       <c r="AJ16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK16" s="32" t="s">
+      <c r="AK16" s="34" t="s">
         <v>72</v>
       </c>
       <c r="AL16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM16" s="31"/>
+      <c r="AM16" s="33"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="11"/>
       <c r="AQ16" s="11"/>
@@ -2013,38 +2092,42 @@
       <c r="A17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="25">
+      <c r="C17" s="26">
+        <v>37.547091551855</v>
+      </c>
+      <c r="D17" s="26">
+        <v>-113.443512284951</v>
+      </c>
+      <c r="E17" s="27">
         <v>6.0</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="28">
         <v>182.7</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="28">
         <v>12.8</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="29">
         <v>60.88</v>
       </c>
       <c r="I17" s="11">
         <v>8.7</v>
       </c>
       <c r="J17" s="14"/>
-      <c r="K17" s="28">
+      <c r="K17" s="30">
         <v>-45.9</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="30">
         <v>-117.3</v>
       </c>
       <c r="M17" s="12"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
       <c r="R17" s="15">
         <v>20.2</v>
       </c>
@@ -2072,11 +2155,11 @@
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
       <c r="AB17" s="19"/>
-      <c r="AC17" s="29"/>
+      <c r="AC17" s="31"/>
       <c r="AD17" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE17" s="29"/>
+      <c r="AE17" s="31"/>
       <c r="AF17" s="13">
         <v>1.0</v>
       </c>
@@ -2092,13 +2175,13 @@
       <c r="AJ17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK17" s="32" t="s">
+      <c r="AK17" s="34" t="s">
         <v>72</v>
       </c>
       <c r="AL17" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM17" s="31"/>
+      <c r="AM17" s="33"/>
       <c r="AO17" s="3"/>
       <c r="AP17" s="11"/>
       <c r="AQ17" s="11"/>
@@ -2107,38 +2190,42 @@
       <c r="A18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="25">
+      <c r="C18" s="26">
+        <v>37.5640022332221</v>
+      </c>
+      <c r="D18" s="26">
+        <v>-113.383319798851</v>
+      </c>
+      <c r="E18" s="27">
         <v>6.0</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="28">
         <v>193.2</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="28">
         <v>4.8</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="29">
         <v>42.54</v>
       </c>
       <c r="I18" s="11">
         <v>10.4</v>
       </c>
       <c r="J18" s="14"/>
-      <c r="K18" s="28">
+      <c r="K18" s="30">
         <v>-48.2</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="30">
         <v>-133.4</v>
       </c>
       <c r="M18" s="12"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
       <c r="R18" s="15">
         <v>20.2</v>
       </c>
@@ -2166,11 +2253,11 @@
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="19"/>
-      <c r="AC18" s="29"/>
+      <c r="AC18" s="31"/>
       <c r="AD18" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE18" s="29"/>
+      <c r="AE18" s="31"/>
       <c r="AF18" s="13">
         <v>1.0</v>
       </c>
@@ -2186,13 +2273,13 @@
       <c r="AJ18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK18" s="32" t="s">
+      <c r="AK18" s="34" t="s">
         <v>72</v>
       </c>
       <c r="AL18" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM18" s="31"/>
+      <c r="AM18" s="33"/>
       <c r="AO18" s="11"/>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="11"/>
@@ -2201,38 +2288,42 @@
       <c r="A19" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="25">
+      <c r="C19" s="26">
+        <v>37.4689236673944</v>
+      </c>
+      <c r="D19" s="26">
+        <v>-113.526255826147</v>
+      </c>
+      <c r="E19" s="27">
         <v>6.0</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="28">
         <v>336.6</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="28">
         <v>46.9</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="29">
         <v>51.97</v>
       </c>
       <c r="I19" s="11">
         <v>9.4</v>
       </c>
       <c r="J19" s="14"/>
-      <c r="K19" s="28">
+      <c r="K19" s="30">
         <v>68.3</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="30">
         <v>137.8</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
       <c r="R19" s="15">
         <v>20.2</v>
       </c>
@@ -2260,29 +2351,29 @@
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
       <c r="AB19" s="19"/>
-      <c r="AC19" s="29"/>
+      <c r="AC19" s="31"/>
       <c r="AD19" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE19" s="29"/>
+      <c r="AE19" s="31"/>
       <c r="AF19" s="11">
         <v>0.0</v>
       </c>
       <c r="AG19" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH19" s="29"/>
+      <c r="AH19" s="31"/>
       <c r="AI19" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK19" s="31"/>
+      <c r="AK19" s="33"/>
       <c r="AL19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM19" s="31"/>
+      <c r="AM19" s="33"/>
       <c r="AO19" s="11"/>
       <c r="AP19" s="11"/>
       <c r="AQ19" s="11"/>
@@ -2291,38 +2382,38 @@
       <c r="A20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="25">
+      <c r="C20" s="26">
+        <v>37.55</v>
+      </c>
+      <c r="D20" s="35">
+        <v>-113.37</v>
+      </c>
+      <c r="E20" s="27">
         <v>4.0</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="28">
         <v>344.5</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="28">
         <v>48.4</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="29">
         <v>287.87</v>
       </c>
       <c r="I20" s="11">
         <v>5.4</v>
       </c>
       <c r="J20" s="14"/>
-      <c r="K20" s="28">
-        <v>74.7</v>
-      </c>
-      <c r="L20" s="28">
-        <v>124.2</v>
-      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
       <c r="R20" s="15">
         <v>20.2</v>
       </c>
@@ -2350,69 +2441,71 @@
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
       <c r="AB20" s="19"/>
-      <c r="AC20" s="29"/>
+      <c r="AC20" s="31"/>
       <c r="AD20" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE20" s="29"/>
+      <c r="AE20" s="31"/>
       <c r="AF20" s="11">
         <v>0.0</v>
       </c>
       <c r="AG20" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH20" s="29"/>
+      <c r="AH20" s="31"/>
       <c r="AI20" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK20" s="31"/>
+      <c r="AK20" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="AL20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM20" s="31"/>
+      <c r="AM20" s="33"/>
       <c r="AO20" s="11"/>
       <c r="AP20" s="11"/>
       <c r="AQ20" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="25">
+      <c r="C21" s="26">
+        <v>37.55</v>
+      </c>
+      <c r="D21" s="35">
+        <v>-113.37</v>
+      </c>
+      <c r="E21" s="27">
         <v>5.0</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="28">
         <v>350.3</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="28">
         <v>51.1</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="29">
         <v>116.36</v>
       </c>
       <c r="I21" s="11">
         <v>7.1</v>
       </c>
       <c r="J21" s="14"/>
-      <c r="K21" s="28">
-        <v>80.2</v>
-      </c>
-      <c r="L21" s="28">
-        <v>115.3</v>
-      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
       <c r="R21" s="15">
         <v>20.2</v>
       </c>
@@ -2440,69 +2533,71 @@
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
-      <c r="AC21" s="29"/>
+      <c r="AC21" s="31"/>
       <c r="AD21" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE21" s="29"/>
+      <c r="AE21" s="31"/>
       <c r="AF21" s="11">
         <v>0.0</v>
       </c>
       <c r="AG21" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH21" s="29"/>
+      <c r="AH21" s="31"/>
       <c r="AI21" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ21" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK21" s="31"/>
+      <c r="AK21" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="AL21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM21" s="31"/>
+      <c r="AM21" s="33"/>
       <c r="AO21" s="11"/>
       <c r="AP21" s="11"/>
       <c r="AQ21" s="11"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="25">
+      <c r="C22" s="26">
+        <v>37.55</v>
+      </c>
+      <c r="D22" s="35">
+        <v>-113.37</v>
+      </c>
+      <c r="E22" s="27">
         <v>6.0</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="28">
         <v>349.2</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="28">
         <v>55.4</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="29">
         <v>118.2</v>
       </c>
       <c r="I22" s="11">
         <v>4.9</v>
       </c>
       <c r="J22" s="14"/>
-      <c r="K22" s="28">
-        <v>81.2</v>
-      </c>
-      <c r="L22" s="28">
-        <v>140.1</v>
-      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
       <c r="R22" s="15">
         <v>20.2</v>
       </c>
@@ -2530,69 +2625,75 @@
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
-      <c r="AC22" s="29"/>
+      <c r="AC22" s="31"/>
       <c r="AD22" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE22" s="29"/>
+      <c r="AE22" s="31"/>
       <c r="AF22" s="11">
         <v>0.0</v>
       </c>
       <c r="AG22" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH22" s="29"/>
+      <c r="AH22" s="31"/>
       <c r="AI22" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK22" s="31"/>
+      <c r="AK22" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="AL22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM22" s="31"/>
+      <c r="AM22" s="33"/>
       <c r="AO22" s="11"/>
       <c r="AP22" s="11"/>
       <c r="AQ22" s="11"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="25">
+      <c r="C23" s="26">
+        <v>37.4338658596921</v>
+      </c>
+      <c r="D23" s="26">
+        <v>-113.909403187584</v>
+      </c>
+      <c r="E23" s="27">
         <v>6.0</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="28">
         <v>349.6</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="28">
         <v>51.0</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="29">
         <v>33.56</v>
       </c>
       <c r="I23" s="11">
         <v>11.7</v>
       </c>
       <c r="J23" s="14"/>
-      <c r="K23" s="28">
+      <c r="K23" s="30">
         <v>79.7</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="30">
         <v>125.3</v>
       </c>
       <c r="M23" s="12"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
       <c r="R23" s="15">
         <v>20.2</v>
       </c>
@@ -2620,69 +2721,73 @@
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="29"/>
+      <c r="AC23" s="31"/>
       <c r="AD23" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE23" s="29"/>
+      <c r="AE23" s="31"/>
       <c r="AF23" s="11">
         <v>0.0</v>
       </c>
       <c r="AG23" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH23" s="29"/>
+      <c r="AH23" s="31"/>
       <c r="AI23" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ23" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK23" s="31"/>
+      <c r="AK23" s="33"/>
       <c r="AL23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM23" s="31"/>
+      <c r="AM23" s="33"/>
       <c r="AO23" s="11"/>
       <c r="AP23" s="11"/>
       <c r="AQ23" s="11"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="25">
+      <c r="C24" s="35">
+        <v>37.45</v>
+      </c>
+      <c r="D24" s="26">
+        <v>-115.3</v>
+      </c>
+      <c r="E24" s="27">
         <v>5.0</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="28">
         <v>10.7</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="28">
         <v>49.5</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="29">
         <v>139.79</v>
       </c>
       <c r="I24" s="11">
         <v>6.5</v>
       </c>
       <c r="J24" s="14"/>
-      <c r="K24" s="28">
+      <c r="K24" s="30">
         <v>78.6</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="30">
         <v>10.3</v>
       </c>
       <c r="M24" s="12"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
       <c r="R24" s="15">
         <v>20.2</v>
       </c>
@@ -2710,69 +2815,73 @@
       <c r="Z24" s="19"/>
       <c r="AA24" s="19"/>
       <c r="AB24" s="19"/>
-      <c r="AC24" s="29"/>
+      <c r="AC24" s="31"/>
       <c r="AD24" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE24" s="29"/>
+      <c r="AE24" s="31"/>
       <c r="AF24" s="11">
         <v>0.0</v>
       </c>
       <c r="AG24" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH24" s="29"/>
+      <c r="AH24" s="31"/>
       <c r="AI24" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK24" s="31"/>
+      <c r="AK24" s="33"/>
       <c r="AL24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM24" s="31"/>
+      <c r="AM24" s="33"/>
       <c r="AO24" s="11"/>
       <c r="AP24" s="11"/>
       <c r="AQ24" s="11"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="25">
+      <c r="C25" s="26">
+        <v>37.4821349486549</v>
+      </c>
+      <c r="D25" s="26">
+        <v>-113.257899982759</v>
+      </c>
+      <c r="E25" s="27">
         <v>7.0</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="28">
         <v>147.1</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="28">
         <v>-73.1</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="29">
         <v>78.69</v>
       </c>
       <c r="I25" s="11">
         <v>6.9</v>
       </c>
       <c r="J25" s="14"/>
-      <c r="K25" s="28">
+      <c r="K25" s="30">
         <v>-60.0</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="30">
         <v>32.4</v>
       </c>
       <c r="M25" s="12"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
       <c r="R25" s="15">
         <v>20.2</v>
       </c>
@@ -2800,11 +2909,11 @@
       <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="19"/>
-      <c r="AC25" s="29"/>
+      <c r="AC25" s="31"/>
       <c r="AD25" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE25" s="29"/>
+      <c r="AE25" s="31"/>
       <c r="AF25" s="13">
         <v>1.0</v>
       </c>
@@ -2820,53 +2929,57 @@
       <c r="AJ25" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK25" s="32" t="s">
+      <c r="AK25" s="34" t="s">
         <v>72</v>
       </c>
       <c r="AL25" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM25" s="31"/>
+      <c r="AM25" s="33"/>
       <c r="AO25" s="11"/>
       <c r="AP25" s="11"/>
       <c r="AQ25" s="11"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="25">
+      <c r="C26" s="26">
+        <v>37.4918577577538</v>
+      </c>
+      <c r="D26" s="26">
+        <v>-113.428846910825</v>
+      </c>
+      <c r="E26" s="27">
         <v>4.0</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="28">
         <v>181.5</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="28">
         <v>-12.3</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="29">
         <v>32.85</v>
       </c>
       <c r="I26" s="11">
         <v>16.3</v>
       </c>
       <c r="J26" s="14"/>
-      <c r="K26" s="28">
+      <c r="K26" s="30">
         <v>-58.7</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="30">
         <v>-116.3</v>
       </c>
       <c r="M26" s="12"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
       <c r="R26" s="15">
         <v>20.2</v>
       </c>
@@ -2894,11 +3007,11 @@
       <c r="Z26" s="19"/>
       <c r="AA26" s="19"/>
       <c r="AB26" s="19"/>
-      <c r="AC26" s="29"/>
+      <c r="AC26" s="31"/>
       <c r="AD26" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE26" s="29"/>
+      <c r="AE26" s="31"/>
       <c r="AF26" s="13">
         <v>1.0</v>
       </c>
@@ -2914,53 +3027,57 @@
       <c r="AJ26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK26" s="32" t="s">
+      <c r="AK26" s="34" t="s">
         <v>72</v>
       </c>
       <c r="AL26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM26" s="31"/>
+      <c r="AM26" s="33"/>
       <c r="AO26" s="11"/>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="11"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="25">
+      <c r="C27" s="26">
+        <v>37.55</v>
+      </c>
+      <c r="D27" s="26">
+        <v>-113.3</v>
+      </c>
+      <c r="E27" s="27">
         <v>6.0</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="28">
         <v>349.3</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="28">
         <v>55.7</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="29">
         <v>104.26</v>
       </c>
       <c r="I27" s="11">
         <v>6.6</v>
       </c>
       <c r="J27" s="14"/>
-      <c r="K27" s="28">
+      <c r="K27" s="30">
         <v>81.3</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="30">
         <v>151.2</v>
       </c>
       <c r="M27" s="12"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
       <c r="R27" s="15">
         <v>20.2</v>
       </c>
@@ -2988,69 +3105,73 @@
       <c r="Z27" s="19"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="29"/>
+      <c r="AC27" s="31"/>
       <c r="AD27" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE27" s="29"/>
+      <c r="AE27" s="31"/>
       <c r="AF27" s="11">
         <v>0.0</v>
       </c>
       <c r="AG27" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH27" s="29"/>
+      <c r="AH27" s="31"/>
       <c r="AI27" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ27" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK27" s="31"/>
+      <c r="AK27" s="33"/>
       <c r="AL27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM27" s="31"/>
+      <c r="AM27" s="33"/>
       <c r="AO27" s="11"/>
       <c r="AP27" s="11"/>
       <c r="AQ27" s="11"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="25">
+      <c r="C28" s="26">
+        <v>37.52</v>
+      </c>
+      <c r="D28" s="26">
+        <v>-112.8</v>
+      </c>
+      <c r="E28" s="27">
         <v>5.0</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="28">
         <v>358.1</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="28">
         <v>55.2</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="29">
         <v>93.06</v>
       </c>
       <c r="I28" s="11">
         <v>8.0</v>
       </c>
       <c r="J28" s="14"/>
-      <c r="K28" s="28">
+      <c r="K28" s="30">
         <v>87.6</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="30">
         <v>108.2</v>
       </c>
       <c r="M28" s="12"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
       <c r="R28" s="15">
         <v>20.2</v>
       </c>
@@ -3078,69 +3199,73 @@
       <c r="Z28" s="19"/>
       <c r="AA28" s="19"/>
       <c r="AB28" s="19"/>
-      <c r="AC28" s="29"/>
+      <c r="AC28" s="31"/>
       <c r="AD28" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE28" s="29"/>
+      <c r="AE28" s="31"/>
       <c r="AF28" s="11">
         <v>0.0</v>
       </c>
       <c r="AG28" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH28" s="29"/>
+      <c r="AH28" s="31"/>
       <c r="AI28" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK28" s="31"/>
+      <c r="AK28" s="33"/>
       <c r="AL28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM28" s="31"/>
+      <c r="AM28" s="33"/>
       <c r="AO28" s="11"/>
       <c r="AP28" s="11"/>
       <c r="AQ28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="25">
+      <c r="C29" s="26">
+        <v>37.6109111390645</v>
+      </c>
+      <c r="D29" s="35">
+        <v>-112.626595010335</v>
+      </c>
+      <c r="E29" s="27">
         <v>6.0</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="28">
         <v>354.8</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="28">
         <v>58.8</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="29">
         <v>159.46</v>
       </c>
       <c r="I29" s="11">
         <v>5.3</v>
       </c>
       <c r="J29" s="14"/>
-      <c r="K29" s="28">
+      <c r="K29" s="30">
         <v>85.5</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="30">
         <v>184.4</v>
       </c>
       <c r="M29" s="12"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
       <c r="R29" s="15">
         <v>20.2</v>
       </c>
@@ -3168,66 +3293,70 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
       <c r="AB29" s="19"/>
-      <c r="AC29" s="29"/>
+      <c r="AC29" s="31"/>
       <c r="AD29" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE29" s="29"/>
+      <c r="AE29" s="31"/>
       <c r="AF29" s="11">
         <v>0.0</v>
       </c>
       <c r="AG29" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH29" s="29"/>
+      <c r="AH29" s="31"/>
       <c r="AI29" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK29" s="31"/>
+      <c r="AK29" s="33"/>
       <c r="AL29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM29" s="31"/>
+      <c r="AM29" s="33"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="25">
+      <c r="C30" s="26">
+        <v>37.59</v>
+      </c>
+      <c r="D30" s="35">
+        <v>-112.9</v>
+      </c>
+      <c r="E30" s="27">
         <v>5.0</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="28">
         <v>349.1</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="28">
         <v>55.9</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="29">
         <v>197.95</v>
       </c>
       <c r="I30" s="11">
         <v>5.5</v>
       </c>
       <c r="J30" s="14"/>
-      <c r="K30" s="28">
+      <c r="K30" s="30">
         <v>81.2</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="30">
         <v>152.9</v>
       </c>
       <c r="M30" s="12"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
       <c r="R30" s="15">
         <v>20.2</v>
       </c>
@@ -3255,66 +3384,70 @@
       <c r="Z30" s="19"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="19"/>
-      <c r="AC30" s="29"/>
+      <c r="AC30" s="31"/>
       <c r="AD30" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE30" s="29"/>
+      <c r="AE30" s="31"/>
       <c r="AF30" s="11">
         <v>0.0</v>
       </c>
       <c r="AG30" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH30" s="29"/>
+      <c r="AH30" s="31"/>
       <c r="AI30" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK30" s="31"/>
+      <c r="AK30" s="33"/>
       <c r="AL30" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM30" s="31"/>
+      <c r="AM30" s="33"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="25">
+      <c r="C31" s="35">
+        <v>37.58</v>
+      </c>
+      <c r="D31" s="35">
+        <v>-112.9</v>
+      </c>
+      <c r="E31" s="27">
         <v>6.0</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="28">
         <v>355.0</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="28">
         <v>57.8</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="29">
         <v>376.1</v>
       </c>
       <c r="I31" s="11">
         <v>3.5</v>
       </c>
       <c r="J31" s="14"/>
-      <c r="K31" s="28">
+      <c r="K31" s="30">
         <v>86.0</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="30">
         <v>171.0</v>
       </c>
       <c r="M31" s="12"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
       <c r="R31" s="15">
         <v>20.2</v>
       </c>
@@ -3342,40 +3475,44 @@
       <c r="Z31" s="19"/>
       <c r="AA31" s="19"/>
       <c r="AB31" s="19"/>
-      <c r="AC31" s="29"/>
+      <c r="AC31" s="31"/>
       <c r="AD31" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE31" s="29"/>
+      <c r="AE31" s="31"/>
       <c r="AF31" s="11">
         <v>0.0</v>
       </c>
       <c r="AG31" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH31" s="29"/>
+      <c r="AH31" s="31"/>
       <c r="AI31" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK31" s="31"/>
+      <c r="AK31" s="33"/>
       <c r="AL31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM31" s="31"/>
+      <c r="AM31" s="33"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11">
+      <c r="C32" s="26">
+        <v>37.5037406671491</v>
+      </c>
+      <c r="D32" s="26">
+        <v>-113.377221512087</v>
+      </c>
+      <c r="E32" s="27">
         <v>6.0</v>
       </c>
       <c r="F32" s="11">
@@ -3384,24 +3521,24 @@
       <c r="G32" s="11">
         <v>-8.6</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="29">
         <v>55.06</v>
       </c>
       <c r="I32" s="11">
         <v>9.1</v>
       </c>
       <c r="J32" s="14"/>
-      <c r="K32" s="28">
+      <c r="K32" s="30">
         <v>-56.1</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="30">
         <v>-99.7</v>
       </c>
       <c r="M32" s="12"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
       <c r="R32" s="15">
         <v>20.2</v>
       </c>
@@ -3449,24 +3586,28 @@
       <c r="AJ32" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK32" s="32" t="s">
+      <c r="AK32" s="34" t="s">
         <v>72</v>
       </c>
       <c r="AL32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM32" s="31"/>
+      <c r="AM32" s="33"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11">
+      <c r="C33" s="35">
+        <v>37.55</v>
+      </c>
+      <c r="D33" s="35">
+        <v>-113.55</v>
+      </c>
+      <c r="E33" s="27">
         <v>5.0</v>
       </c>
       <c r="F33" s="11">
@@ -3475,24 +3616,20 @@
       <c r="G33" s="11">
         <v>11.4</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="29">
         <v>71.0093</v>
       </c>
       <c r="I33" s="11">
         <v>9.1</v>
       </c>
       <c r="J33" s="14"/>
-      <c r="K33" s="28">
-        <v>-46.0</v>
-      </c>
-      <c r="L33" s="28">
-        <v>-128.5</v>
-      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
       <c r="R33" s="15">
         <v>20.2</v>
       </c>
@@ -3540,50 +3677,50 @@
       <c r="AJ33" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK33" s="32" t="s">
-        <v>72</v>
+      <c r="AK33" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="AL33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM33" s="31"/>
+      <c r="AM33" s="33"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="25">
+      <c r="C34" s="35">
+        <v>37.55</v>
+      </c>
+      <c r="D34" s="35">
+        <v>-113.55</v>
+      </c>
+      <c r="E34" s="27">
         <v>5.0</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="28">
         <v>158.3</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="28">
         <v>3.8</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="29">
         <v>179.9127</v>
       </c>
       <c r="I34" s="11">
         <v>5.7</v>
       </c>
       <c r="J34" s="14"/>
-      <c r="K34" s="28">
-        <v>-45.6</v>
-      </c>
-      <c r="L34" s="28">
-        <v>-85.9</v>
-      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="12"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
       <c r="R34" s="15">
         <v>20.2</v>
       </c>
@@ -3611,11 +3748,11 @@
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
       <c r="AB34" s="19"/>
-      <c r="AC34" s="29"/>
+      <c r="AC34" s="31"/>
       <c r="AD34" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE34" s="29"/>
+      <c r="AE34" s="31"/>
       <c r="AF34" s="13">
         <v>1.0</v>
       </c>
@@ -3631,50 +3768,50 @@
       <c r="AJ34" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK34" s="32" t="s">
-        <v>72</v>
+      <c r="AK34" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="AL34" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM34" s="31"/>
+      <c r="AM34" s="33"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="25">
+      <c r="C35" s="35">
+        <v>37.55</v>
+      </c>
+      <c r="D35" s="35">
+        <v>-113.55</v>
+      </c>
+      <c r="E35" s="27">
         <v>5.0</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="28">
         <v>174.7</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="28">
         <v>-9.6</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="29">
         <v>35.3153</v>
       </c>
       <c r="I35" s="11">
         <v>13.1</v>
       </c>
       <c r="J35" s="14"/>
-      <c r="K35" s="28">
-        <v>-56.8</v>
-      </c>
-      <c r="L35" s="28">
-        <v>-108.0</v>
-      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
       <c r="R35" s="15">
         <v>20.2</v>
       </c>
@@ -3702,11 +3839,11 @@
       <c r="Z35" s="19"/>
       <c r="AA35" s="19"/>
       <c r="AB35" s="19"/>
-      <c r="AC35" s="29"/>
+      <c r="AC35" s="31"/>
       <c r="AD35" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE35" s="29"/>
+      <c r="AE35" s="31"/>
       <c r="AF35" s="13">
         <v>1.0</v>
       </c>
@@ -3722,50 +3859,50 @@
       <c r="AJ35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK35" s="32" t="s">
-        <v>72</v>
+      <c r="AK35" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="AL35" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM35" s="31"/>
+      <c r="AM35" s="33"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="25">
+      <c r="C36" s="35">
+        <v>37.55</v>
+      </c>
+      <c r="D36" s="35">
+        <v>-113.55</v>
+      </c>
+      <c r="E36" s="27">
         <v>7.0</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="28">
         <v>177.8</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="28">
         <v>-30.9</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="29">
         <v>52.6411</v>
       </c>
       <c r="I36" s="11">
         <v>8.4</v>
       </c>
       <c r="J36" s="14"/>
-      <c r="K36" s="28">
-        <v>-68.9</v>
-      </c>
-      <c r="L36" s="28">
-        <v>-111.9</v>
-      </c>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="12"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
       <c r="R36" s="15">
         <v>20.2</v>
       </c>
@@ -3793,66 +3930,68 @@
       <c r="Z36" s="19"/>
       <c r="AA36" s="19"/>
       <c r="AB36" s="19"/>
-      <c r="AC36" s="29"/>
+      <c r="AC36" s="31"/>
       <c r="AD36" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE36" s="29"/>
+      <c r="AE36" s="31"/>
       <c r="AF36" s="11">
         <v>0.0</v>
       </c>
       <c r="AG36" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH36" s="29"/>
+      <c r="AH36" s="31"/>
       <c r="AI36" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ36" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK36" s="31"/>
+      <c r="AK36" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="AL36" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM36" s="31"/>
+      <c r="AM36" s="33"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="25">
+      <c r="C37" s="35">
+        <v>37.55</v>
+      </c>
+      <c r="D37" s="35">
+        <v>-113.55</v>
+      </c>
+      <c r="E37" s="27">
         <v>4.0</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="28">
         <v>174.1</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="28">
         <v>3.4</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="29">
         <v>163.6567</v>
       </c>
       <c r="I37" s="11">
         <v>7.2</v>
       </c>
       <c r="J37" s="14"/>
-      <c r="K37" s="28">
-        <v>-50.3</v>
-      </c>
-      <c r="L37" s="28">
-        <v>-108.6</v>
-      </c>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
       <c r="R37" s="15">
         <v>20.2</v>
       </c>
@@ -3880,11 +4019,11 @@
       <c r="Z37" s="19"/>
       <c r="AA37" s="19"/>
       <c r="AB37" s="19"/>
-      <c r="AC37" s="29"/>
+      <c r="AC37" s="31"/>
       <c r="AD37" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE37" s="29"/>
+      <c r="AE37" s="31"/>
       <c r="AF37" s="13">
         <v>1.0</v>
       </c>
@@ -3900,50 +4039,50 @@
       <c r="AJ37" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK37" s="32" t="s">
-        <v>72</v>
+      <c r="AK37" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="AL37" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM37" s="31"/>
+      <c r="AM37" s="33"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="25">
+      <c r="C38" s="35">
+        <v>37.55</v>
+      </c>
+      <c r="D38" s="35">
+        <v>-113.55</v>
+      </c>
+      <c r="E38" s="27">
         <v>5.0</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="28">
         <v>358.8</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="28">
         <v>66.6</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="29">
         <v>97.6953</v>
       </c>
       <c r="I38" s="11">
         <v>7.8</v>
       </c>
       <c r="J38" s="14"/>
-      <c r="K38" s="28">
-        <v>78.5</v>
-      </c>
-      <c r="L38" s="28">
-        <v>-121.7</v>
-      </c>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
       <c r="R38" s="15">
         <v>20.2</v>
       </c>
@@ -3971,49 +4110,51 @@
       <c r="Z38" s="19"/>
       <c r="AA38" s="19"/>
       <c r="AB38" s="19"/>
-      <c r="AC38" s="29"/>
+      <c r="AC38" s="31"/>
       <c r="AD38" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE38" s="29"/>
+      <c r="AE38" s="31"/>
       <c r="AF38" s="11">
         <v>0.0</v>
       </c>
       <c r="AG38" s="13">
         <v>1.0</v>
       </c>
-      <c r="AH38" s="29"/>
+      <c r="AH38" s="31"/>
       <c r="AI38" s="20" t="s">
         <v>45</v>
       </c>
       <c r="AJ38" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK38" s="31"/>
+      <c r="AK38" s="22" t="s">
+        <v>78</v>
+      </c>
       <c r="AL38" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AM38" s="31"/>
+      <c r="AM38" s="33"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="34">
+      <c r="E39" s="38">
         <v>11.0</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="39">
         <v>178.5</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="39">
         <v>0.9</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="40">
         <v>24.1</v>
       </c>
       <c r="I39" s="13">
@@ -4054,13 +4195,13 @@
       <c r="Z39" s="19"/>
       <c r="AA39" s="19"/>
       <c r="AB39" s="19"/>
-      <c r="AC39" s="29"/>
+      <c r="AC39" s="31"/>
       <c r="AD39" s="11">
         <v>0.0</v>
       </c>
-      <c r="AE39" s="29"/>
+      <c r="AE39" s="31"/>
       <c r="AF39" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG39" s="13">
         <v>0.0</v>
@@ -4075,4339 +4216,4341 @@
         <v>46</v>
       </c>
       <c r="AK39" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="E40" s="28"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="45"/>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="E42" s="28"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="39"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="45"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="E43" s="28"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="39"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="24"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="25"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="27"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="39"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="24"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="25"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="27"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="45"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="39"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="45"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="39"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="24"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="25"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="27"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="29"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="39"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="24"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="25"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="27"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="29"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="45"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="27"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="29"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="39"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="45"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="27"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="29"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="39"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="24"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="25"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="27"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="29"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="39"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="24"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="25"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="27"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="29"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="45"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="27"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="29"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="39"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="41"/>
-      <c r="AK54" s="31"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="45"/>
+      <c r="AK54" s="33"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="27"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="29"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="39"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="24"/>
-      <c r="AK55" s="31"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="25"/>
+      <c r="AK55" s="33"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="27"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="29"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="38"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="39"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="24"/>
-      <c r="AK56" s="31"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="25"/>
+      <c r="AK56" s="33"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="Q57" s="38"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="41"/>
-      <c r="AK57" s="31"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="45"/>
+      <c r="AK57" s="33"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="31"/>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="41"/>
-      <c r="AK58" s="31"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="45"/>
+      <c r="AK58" s="33"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="24"/>
-      <c r="AK59" s="31"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="25"/>
+      <c r="AK59" s="33"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="24"/>
-      <c r="AK60" s="31"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="25"/>
+      <c r="AK60" s="33"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31"/>
-      <c r="AK61" s="31"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AK61" s="33"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="31"/>
-      <c r="Z62" s="31"/>
-      <c r="AK62" s="31"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AK62" s="33"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="39"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AK63" s="31"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AK63" s="33"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="39"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="31"/>
-      <c r="Z64" s="31"/>
-      <c r="AK64" s="31"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AK64" s="33"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="I65" s="27"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="I66" s="27"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="I67" s="27"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="I68" s="27"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="I69" s="27"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="I70" s="27"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="I71" s="27"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="J93" s="42"/>
-      <c r="K93" s="42"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="J98" s="42"/>
-      <c r="K98" s="42"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="47"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="J100" s="42"/>
-      <c r="K100" s="42"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="47"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="J102" s="42"/>
-      <c r="K102" s="42"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="J103" s="42"/>
-      <c r="K103" s="42"/>
+      <c r="J103" s="47"/>
+      <c r="K103" s="47"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="J104" s="42"/>
-      <c r="K104" s="42"/>
+      <c r="J104" s="47"/>
+      <c r="K104" s="47"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="J105" s="42"/>
-      <c r="K105" s="42"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="47"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="J106" s="42"/>
-      <c r="K106" s="42"/>
+      <c r="J106" s="47"/>
+      <c r="K106" s="47"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
+      <c r="J107" s="47"/>
+      <c r="K107" s="47"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="J108" s="42"/>
-      <c r="K108" s="42"/>
+      <c r="J108" s="47"/>
+      <c r="K108" s="47"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="J109" s="42"/>
-      <c r="K109" s="42"/>
+      <c r="J109" s="47"/>
+      <c r="K109" s="47"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="J110" s="42"/>
-      <c r="K110" s="42"/>
+      <c r="J110" s="47"/>
+      <c r="K110" s="47"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="J111" s="42"/>
-      <c r="K111" s="42"/>
+      <c r="J111" s="47"/>
+      <c r="K111" s="47"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="J112" s="42"/>
-      <c r="K112" s="42"/>
+      <c r="J112" s="47"/>
+      <c r="K112" s="47"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="J113" s="42"/>
-      <c r="K113" s="42"/>
+      <c r="J113" s="47"/>
+      <c r="K113" s="47"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="J114" s="42"/>
-      <c r="K114" s="42"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="47"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="J115" s="42"/>
-      <c r="K115" s="42"/>
+      <c r="J115" s="47"/>
+      <c r="K115" s="47"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
+      <c r="J116" s="47"/>
+      <c r="K116" s="47"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="J117" s="42"/>
-      <c r="K117" s="42"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="J118" s="42"/>
-      <c r="K118" s="42"/>
+      <c r="J118" s="47"/>
+      <c r="K118" s="47"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="J119" s="42"/>
-      <c r="K119" s="42"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="J120" s="42"/>
-      <c r="K120" s="42"/>
+      <c r="J120" s="47"/>
+      <c r="K120" s="47"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="J121" s="42"/>
-      <c r="K121" s="42"/>
+      <c r="J121" s="47"/>
+      <c r="K121" s="47"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
+      <c r="J122" s="47"/>
+      <c r="K122" s="47"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="J123" s="42"/>
-      <c r="K123" s="42"/>
+      <c r="J123" s="47"/>
+      <c r="K123" s="47"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="J124" s="42"/>
-      <c r="K124" s="42"/>
+      <c r="J124" s="47"/>
+      <c r="K124" s="47"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="J125" s="42"/>
-      <c r="K125" s="42"/>
+      <c r="J125" s="47"/>
+      <c r="K125" s="47"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="J126" s="42"/>
-      <c r="K126" s="42"/>
+      <c r="J126" s="47"/>
+      <c r="K126" s="47"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="J127" s="42"/>
-      <c r="K127" s="42"/>
+      <c r="J127" s="47"/>
+      <c r="K127" s="47"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="J128" s="42"/>
-      <c r="K128" s="42"/>
+      <c r="J128" s="47"/>
+      <c r="K128" s="47"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="J129" s="42"/>
-      <c r="K129" s="42"/>
+      <c r="J129" s="47"/>
+      <c r="K129" s="47"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="J130" s="42"/>
-      <c r="K130" s="42"/>
+      <c r="J130" s="47"/>
+      <c r="K130" s="47"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="J131" s="42"/>
-      <c r="K131" s="42"/>
+      <c r="J131" s="47"/>
+      <c r="K131" s="47"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="J132" s="42"/>
-      <c r="K132" s="42"/>
+      <c r="J132" s="47"/>
+      <c r="K132" s="47"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="J133" s="42"/>
-      <c r="K133" s="42"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="47"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="J134" s="42"/>
-      <c r="K134" s="42"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="J135" s="42"/>
-      <c r="K135" s="42"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="47"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="J136" s="42"/>
-      <c r="K136" s="42"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="47"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="J137" s="42"/>
-      <c r="K137" s="42"/>
+      <c r="J137" s="47"/>
+      <c r="K137" s="47"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="J138" s="42"/>
-      <c r="K138" s="42"/>
+      <c r="J138" s="47"/>
+      <c r="K138" s="47"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="J139" s="42"/>
-      <c r="K139" s="42"/>
+      <c r="J139" s="47"/>
+      <c r="K139" s="47"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="J140" s="42"/>
-      <c r="K140" s="42"/>
+      <c r="J140" s="47"/>
+      <c r="K140" s="47"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="J141" s="42"/>
-      <c r="K141" s="42"/>
+      <c r="J141" s="47"/>
+      <c r="K141" s="47"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="J142" s="42"/>
-      <c r="K142" s="42"/>
+      <c r="J142" s="47"/>
+      <c r="K142" s="47"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="J143" s="42"/>
-      <c r="K143" s="42"/>
+      <c r="J143" s="47"/>
+      <c r="K143" s="47"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="J144" s="42"/>
-      <c r="K144" s="42"/>
+      <c r="J144" s="47"/>
+      <c r="K144" s="47"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="J145" s="42"/>
-      <c r="K145" s="42"/>
+      <c r="J145" s="47"/>
+      <c r="K145" s="47"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="J146" s="42"/>
-      <c r="K146" s="42"/>
+      <c r="J146" s="47"/>
+      <c r="K146" s="47"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="J147" s="42"/>
-      <c r="K147" s="42"/>
+      <c r="J147" s="47"/>
+      <c r="K147" s="47"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="J148" s="42"/>
-      <c r="K148" s="42"/>
+      <c r="J148" s="47"/>
+      <c r="K148" s="47"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="J149" s="42"/>
-      <c r="K149" s="42"/>
+      <c r="J149" s="47"/>
+      <c r="K149" s="47"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="J150" s="42"/>
-      <c r="K150" s="42"/>
+      <c r="J150" s="47"/>
+      <c r="K150" s="47"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="J151" s="42"/>
-      <c r="K151" s="42"/>
+      <c r="J151" s="47"/>
+      <c r="K151" s="47"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="J152" s="42"/>
-      <c r="K152" s="42"/>
+      <c r="J152" s="47"/>
+      <c r="K152" s="47"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="J153" s="42"/>
-      <c r="K153" s="42"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="47"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="J154" s="42"/>
-      <c r="K154" s="42"/>
+      <c r="J154" s="47"/>
+      <c r="K154" s="47"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="J155" s="42"/>
-      <c r="K155" s="42"/>
+      <c r="J155" s="47"/>
+      <c r="K155" s="47"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="J156" s="42"/>
-      <c r="K156" s="42"/>
+      <c r="J156" s="47"/>
+      <c r="K156" s="47"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="J157" s="42"/>
-      <c r="K157" s="42"/>
+      <c r="J157" s="47"/>
+      <c r="K157" s="47"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="J158" s="42"/>
-      <c r="K158" s="42"/>
+      <c r="J158" s="47"/>
+      <c r="K158" s="47"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="J159" s="42"/>
-      <c r="K159" s="42"/>
+      <c r="J159" s="47"/>
+      <c r="K159" s="47"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="J160" s="42"/>
-      <c r="K160" s="42"/>
+      <c r="J160" s="47"/>
+      <c r="K160" s="47"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="J161" s="42"/>
-      <c r="K161" s="42"/>
+      <c r="J161" s="47"/>
+      <c r="K161" s="47"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="J162" s="42"/>
-      <c r="K162" s="42"/>
+      <c r="J162" s="47"/>
+      <c r="K162" s="47"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="J163" s="42"/>
-      <c r="K163" s="42"/>
+      <c r="J163" s="47"/>
+      <c r="K163" s="47"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="J164" s="42"/>
-      <c r="K164" s="42"/>
+      <c r="J164" s="47"/>
+      <c r="K164" s="47"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="J165" s="42"/>
-      <c r="K165" s="42"/>
+      <c r="J165" s="47"/>
+      <c r="K165" s="47"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="J166" s="42"/>
-      <c r="K166" s="42"/>
+      <c r="J166" s="47"/>
+      <c r="K166" s="47"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="J167" s="42"/>
-      <c r="K167" s="42"/>
+      <c r="J167" s="47"/>
+      <c r="K167" s="47"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="J168" s="42"/>
-      <c r="K168" s="42"/>
+      <c r="J168" s="47"/>
+      <c r="K168" s="47"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="J169" s="42"/>
-      <c r="K169" s="42"/>
+      <c r="J169" s="47"/>
+      <c r="K169" s="47"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="J170" s="42"/>
-      <c r="K170" s="42"/>
+      <c r="J170" s="47"/>
+      <c r="K170" s="47"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="J171" s="42"/>
-      <c r="K171" s="42"/>
+      <c r="J171" s="47"/>
+      <c r="K171" s="47"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="J172" s="42"/>
-      <c r="K172" s="42"/>
+      <c r="J172" s="47"/>
+      <c r="K172" s="47"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="J173" s="42"/>
-      <c r="K173" s="42"/>
+      <c r="J173" s="47"/>
+      <c r="K173" s="47"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="J174" s="42"/>
-      <c r="K174" s="42"/>
+      <c r="J174" s="47"/>
+      <c r="K174" s="47"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="J175" s="42"/>
-      <c r="K175" s="42"/>
+      <c r="J175" s="47"/>
+      <c r="K175" s="47"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="J176" s="42"/>
-      <c r="K176" s="42"/>
+      <c r="J176" s="47"/>
+      <c r="K176" s="47"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="J177" s="42"/>
-      <c r="K177" s="42"/>
+      <c r="J177" s="47"/>
+      <c r="K177" s="47"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="J178" s="42"/>
-      <c r="K178" s="42"/>
+      <c r="J178" s="47"/>
+      <c r="K178" s="47"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="J179" s="42"/>
-      <c r="K179" s="42"/>
+      <c r="J179" s="47"/>
+      <c r="K179" s="47"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="J180" s="42"/>
-      <c r="K180" s="42"/>
+      <c r="J180" s="47"/>
+      <c r="K180" s="47"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="J181" s="42"/>
-      <c r="K181" s="42"/>
+      <c r="J181" s="47"/>
+      <c r="K181" s="47"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="J182" s="42"/>
-      <c r="K182" s="42"/>
+      <c r="J182" s="47"/>
+      <c r="K182" s="47"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="J183" s="42"/>
-      <c r="K183" s="42"/>
+      <c r="J183" s="47"/>
+      <c r="K183" s="47"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="J184" s="42"/>
-      <c r="K184" s="42"/>
+      <c r="J184" s="47"/>
+      <c r="K184" s="47"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="J185" s="42"/>
-      <c r="K185" s="42"/>
+      <c r="J185" s="47"/>
+      <c r="K185" s="47"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="J186" s="42"/>
-      <c r="K186" s="42"/>
+      <c r="J186" s="47"/>
+      <c r="K186" s="47"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="J187" s="42"/>
-      <c r="K187" s="42"/>
+      <c r="J187" s="47"/>
+      <c r="K187" s="47"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="J188" s="42"/>
-      <c r="K188" s="42"/>
+      <c r="J188" s="47"/>
+      <c r="K188" s="47"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="J189" s="42"/>
-      <c r="K189" s="42"/>
+      <c r="J189" s="47"/>
+      <c r="K189" s="47"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="J190" s="42"/>
-      <c r="K190" s="42"/>
+      <c r="J190" s="47"/>
+      <c r="K190" s="47"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="J191" s="42"/>
-      <c r="K191" s="42"/>
+      <c r="J191" s="47"/>
+      <c r="K191" s="47"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="J192" s="42"/>
-      <c r="K192" s="42"/>
+      <c r="J192" s="47"/>
+      <c r="K192" s="47"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="J193" s="42"/>
-      <c r="K193" s="42"/>
+      <c r="J193" s="47"/>
+      <c r="K193" s="47"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="J194" s="42"/>
-      <c r="K194" s="42"/>
+      <c r="J194" s="47"/>
+      <c r="K194" s="47"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="J195" s="42"/>
-      <c r="K195" s="42"/>
+      <c r="J195" s="47"/>
+      <c r="K195" s="47"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="J196" s="42"/>
-      <c r="K196" s="42"/>
+      <c r="J196" s="47"/>
+      <c r="K196" s="47"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="J197" s="42"/>
-      <c r="K197" s="42"/>
+      <c r="J197" s="47"/>
+      <c r="K197" s="47"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="J198" s="42"/>
-      <c r="K198" s="42"/>
+      <c r="J198" s="47"/>
+      <c r="K198" s="47"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="J199" s="42"/>
-      <c r="K199" s="42"/>
+      <c r="J199" s="47"/>
+      <c r="K199" s="47"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="J200" s="42"/>
-      <c r="K200" s="42"/>
+      <c r="J200" s="47"/>
+      <c r="K200" s="47"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="J201" s="42"/>
-      <c r="K201" s="42"/>
+      <c r="J201" s="47"/>
+      <c r="K201" s="47"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="J202" s="42"/>
-      <c r="K202" s="42"/>
+      <c r="J202" s="47"/>
+      <c r="K202" s="47"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="J203" s="42"/>
-      <c r="K203" s="42"/>
+      <c r="J203" s="47"/>
+      <c r="K203" s="47"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="J204" s="42"/>
-      <c r="K204" s="42"/>
+      <c r="J204" s="47"/>
+      <c r="K204" s="47"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="J205" s="42"/>
-      <c r="K205" s="42"/>
+      <c r="J205" s="47"/>
+      <c r="K205" s="47"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="J206" s="42"/>
-      <c r="K206" s="42"/>
+      <c r="J206" s="47"/>
+      <c r="K206" s="47"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="J207" s="42"/>
-      <c r="K207" s="42"/>
+      <c r="J207" s="47"/>
+      <c r="K207" s="47"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="J208" s="42"/>
-      <c r="K208" s="42"/>
+      <c r="J208" s="47"/>
+      <c r="K208" s="47"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="J209" s="42"/>
-      <c r="K209" s="42"/>
+      <c r="J209" s="47"/>
+      <c r="K209" s="47"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="J210" s="42"/>
-      <c r="K210" s="42"/>
+      <c r="J210" s="47"/>
+      <c r="K210" s="47"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="J211" s="42"/>
-      <c r="K211" s="42"/>
+      <c r="J211" s="47"/>
+      <c r="K211" s="47"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="J212" s="42"/>
-      <c r="K212" s="42"/>
+      <c r="J212" s="47"/>
+      <c r="K212" s="47"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="J213" s="42"/>
-      <c r="K213" s="42"/>
+      <c r="J213" s="47"/>
+      <c r="K213" s="47"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="J214" s="42"/>
-      <c r="K214" s="42"/>
+      <c r="J214" s="47"/>
+      <c r="K214" s="47"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="J215" s="42"/>
-      <c r="K215" s="42"/>
+      <c r="J215" s="47"/>
+      <c r="K215" s="47"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="J216" s="42"/>
-      <c r="K216" s="42"/>
+      <c r="J216" s="47"/>
+      <c r="K216" s="47"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="J217" s="42"/>
-      <c r="K217" s="42"/>
+      <c r="J217" s="47"/>
+      <c r="K217" s="47"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="J218" s="42"/>
-      <c r="K218" s="42"/>
+      <c r="J218" s="47"/>
+      <c r="K218" s="47"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="J219" s="42"/>
-      <c r="K219" s="42"/>
+      <c r="J219" s="47"/>
+      <c r="K219" s="47"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="J220" s="42"/>
-      <c r="K220" s="42"/>
+      <c r="J220" s="47"/>
+      <c r="K220" s="47"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="J221" s="42"/>
-      <c r="K221" s="42"/>
+      <c r="J221" s="47"/>
+      <c r="K221" s="47"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="J222" s="42"/>
-      <c r="K222" s="42"/>
+      <c r="J222" s="47"/>
+      <c r="K222" s="47"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="J223" s="42"/>
-      <c r="K223" s="42"/>
+      <c r="J223" s="47"/>
+      <c r="K223" s="47"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="J224" s="42"/>
-      <c r="K224" s="42"/>
+      <c r="J224" s="47"/>
+      <c r="K224" s="47"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="J225" s="42"/>
-      <c r="K225" s="42"/>
+      <c r="J225" s="47"/>
+      <c r="K225" s="47"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="J226" s="42"/>
-      <c r="K226" s="42"/>
+      <c r="J226" s="47"/>
+      <c r="K226" s="47"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="J227" s="42"/>
-      <c r="K227" s="42"/>
+      <c r="J227" s="47"/>
+      <c r="K227" s="47"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="J228" s="42"/>
-      <c r="K228" s="42"/>
+      <c r="J228" s="47"/>
+      <c r="K228" s="47"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="J229" s="42"/>
-      <c r="K229" s="42"/>
+      <c r="J229" s="47"/>
+      <c r="K229" s="47"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="J230" s="42"/>
-      <c r="K230" s="42"/>
+      <c r="J230" s="47"/>
+      <c r="K230" s="47"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="J231" s="42"/>
-      <c r="K231" s="42"/>
+      <c r="J231" s="47"/>
+      <c r="K231" s="47"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="J232" s="42"/>
-      <c r="K232" s="42"/>
+      <c r="J232" s="47"/>
+      <c r="K232" s="47"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="J233" s="42"/>
-      <c r="K233" s="42"/>
+      <c r="J233" s="47"/>
+      <c r="K233" s="47"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="J234" s="42"/>
-      <c r="K234" s="42"/>
+      <c r="J234" s="47"/>
+      <c r="K234" s="47"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="J235" s="42"/>
-      <c r="K235" s="42"/>
+      <c r="J235" s="47"/>
+      <c r="K235" s="47"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="J236" s="42"/>
-      <c r="K236" s="42"/>
+      <c r="J236" s="47"/>
+      <c r="K236" s="47"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="J237" s="42"/>
-      <c r="K237" s="42"/>
+      <c r="J237" s="47"/>
+      <c r="K237" s="47"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="J238" s="42"/>
-      <c r="K238" s="42"/>
+      <c r="J238" s="47"/>
+      <c r="K238" s="47"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="J239" s="42"/>
-      <c r="K239" s="42"/>
+      <c r="J239" s="47"/>
+      <c r="K239" s="47"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="J240" s="42"/>
-      <c r="K240" s="42"/>
+      <c r="J240" s="47"/>
+      <c r="K240" s="47"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="J241" s="42"/>
-      <c r="K241" s="42"/>
+      <c r="J241" s="47"/>
+      <c r="K241" s="47"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="J242" s="42"/>
-      <c r="K242" s="42"/>
+      <c r="J242" s="47"/>
+      <c r="K242" s="47"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="J243" s="42"/>
-      <c r="K243" s="42"/>
+      <c r="J243" s="47"/>
+      <c r="K243" s="47"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="J244" s="42"/>
-      <c r="K244" s="42"/>
+      <c r="J244" s="47"/>
+      <c r="K244" s="47"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="J245" s="42"/>
-      <c r="K245" s="42"/>
+      <c r="J245" s="47"/>
+      <c r="K245" s="47"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="J246" s="42"/>
-      <c r="K246" s="42"/>
+      <c r="J246" s="47"/>
+      <c r="K246" s="47"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="J247" s="42"/>
-      <c r="K247" s="42"/>
+      <c r="J247" s="47"/>
+      <c r="K247" s="47"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="J248" s="42"/>
-      <c r="K248" s="42"/>
+      <c r="J248" s="47"/>
+      <c r="K248" s="47"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="J249" s="42"/>
-      <c r="K249" s="42"/>
+      <c r="J249" s="47"/>
+      <c r="K249" s="47"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="J250" s="42"/>
-      <c r="K250" s="42"/>
+      <c r="J250" s="47"/>
+      <c r="K250" s="47"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="J251" s="42"/>
-      <c r="K251" s="42"/>
+      <c r="J251" s="47"/>
+      <c r="K251" s="47"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="J252" s="42"/>
-      <c r="K252" s="42"/>
+      <c r="J252" s="47"/>
+      <c r="K252" s="47"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="J253" s="42"/>
-      <c r="K253" s="42"/>
+      <c r="J253" s="47"/>
+      <c r="K253" s="47"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="J254" s="42"/>
-      <c r="K254" s="42"/>
+      <c r="J254" s="47"/>
+      <c r="K254" s="47"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="J255" s="42"/>
-      <c r="K255" s="42"/>
+      <c r="J255" s="47"/>
+      <c r="K255" s="47"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="J256" s="42"/>
-      <c r="K256" s="42"/>
+      <c r="J256" s="47"/>
+      <c r="K256" s="47"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="J257" s="42"/>
-      <c r="K257" s="42"/>
+      <c r="J257" s="47"/>
+      <c r="K257" s="47"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="J258" s="42"/>
-      <c r="K258" s="42"/>
+      <c r="J258" s="47"/>
+      <c r="K258" s="47"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="J259" s="42"/>
-      <c r="K259" s="42"/>
+      <c r="J259" s="47"/>
+      <c r="K259" s="47"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="J260" s="42"/>
-      <c r="K260" s="42"/>
+      <c r="J260" s="47"/>
+      <c r="K260" s="47"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="J261" s="42"/>
-      <c r="K261" s="42"/>
+      <c r="J261" s="47"/>
+      <c r="K261" s="47"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="J262" s="42"/>
-      <c r="K262" s="42"/>
+      <c r="J262" s="47"/>
+      <c r="K262" s="47"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="J263" s="42"/>
-      <c r="K263" s="42"/>
+      <c r="J263" s="47"/>
+      <c r="K263" s="47"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="J264" s="42"/>
-      <c r="K264" s="42"/>
+      <c r="J264" s="47"/>
+      <c r="K264" s="47"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="J265" s="42"/>
-      <c r="K265" s="42"/>
+      <c r="J265" s="47"/>
+      <c r="K265" s="47"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="J266" s="42"/>
-      <c r="K266" s="42"/>
+      <c r="J266" s="47"/>
+      <c r="K266" s="47"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="J267" s="42"/>
-      <c r="K267" s="42"/>
+      <c r="J267" s="47"/>
+      <c r="K267" s="47"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="J268" s="42"/>
-      <c r="K268" s="42"/>
+      <c r="J268" s="47"/>
+      <c r="K268" s="47"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="J269" s="42"/>
-      <c r="K269" s="42"/>
+      <c r="J269" s="47"/>
+      <c r="K269" s="47"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="J270" s="42"/>
-      <c r="K270" s="42"/>
+      <c r="J270" s="47"/>
+      <c r="K270" s="47"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="J271" s="42"/>
-      <c r="K271" s="42"/>
+      <c r="J271" s="47"/>
+      <c r="K271" s="47"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="J272" s="42"/>
-      <c r="K272" s="42"/>
+      <c r="J272" s="47"/>
+      <c r="K272" s="47"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="J273" s="42"/>
-      <c r="K273" s="42"/>
+      <c r="J273" s="47"/>
+      <c r="K273" s="47"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="J274" s="42"/>
-      <c r="K274" s="42"/>
+      <c r="J274" s="47"/>
+      <c r="K274" s="47"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="J275" s="42"/>
-      <c r="K275" s="42"/>
+      <c r="J275" s="47"/>
+      <c r="K275" s="47"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="J276" s="42"/>
-      <c r="K276" s="42"/>
+      <c r="J276" s="47"/>
+      <c r="K276" s="47"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="J277" s="42"/>
-      <c r="K277" s="42"/>
+      <c r="J277" s="47"/>
+      <c r="K277" s="47"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="J278" s="42"/>
-      <c r="K278" s="42"/>
+      <c r="J278" s="47"/>
+      <c r="K278" s="47"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="J279" s="42"/>
-      <c r="K279" s="42"/>
+      <c r="J279" s="47"/>
+      <c r="K279" s="47"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="J280" s="42"/>
-      <c r="K280" s="42"/>
+      <c r="J280" s="47"/>
+      <c r="K280" s="47"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="J281" s="42"/>
-      <c r="K281" s="42"/>
+      <c r="J281" s="47"/>
+      <c r="K281" s="47"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="J282" s="42"/>
-      <c r="K282" s="42"/>
+      <c r="J282" s="47"/>
+      <c r="K282" s="47"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="J283" s="42"/>
-      <c r="K283" s="42"/>
+      <c r="J283" s="47"/>
+      <c r="K283" s="47"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="J284" s="42"/>
-      <c r="K284" s="42"/>
+      <c r="J284" s="47"/>
+      <c r="K284" s="47"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="J285" s="42"/>
-      <c r="K285" s="42"/>
+      <c r="J285" s="47"/>
+      <c r="K285" s="47"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="J286" s="42"/>
-      <c r="K286" s="42"/>
+      <c r="J286" s="47"/>
+      <c r="K286" s="47"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="J287" s="42"/>
-      <c r="K287" s="42"/>
+      <c r="J287" s="47"/>
+      <c r="K287" s="47"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="J288" s="42"/>
-      <c r="K288" s="42"/>
+      <c r="J288" s="47"/>
+      <c r="K288" s="47"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="J289" s="42"/>
-      <c r="K289" s="42"/>
+      <c r="J289" s="47"/>
+      <c r="K289" s="47"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="J290" s="42"/>
-      <c r="K290" s="42"/>
+      <c r="J290" s="47"/>
+      <c r="K290" s="47"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="J291" s="42"/>
-      <c r="K291" s="42"/>
+      <c r="J291" s="47"/>
+      <c r="K291" s="47"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="J292" s="42"/>
-      <c r="K292" s="42"/>
+      <c r="J292" s="47"/>
+      <c r="K292" s="47"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="J293" s="42"/>
-      <c r="K293" s="42"/>
+      <c r="J293" s="47"/>
+      <c r="K293" s="47"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="J294" s="42"/>
-      <c r="K294" s="42"/>
+      <c r="J294" s="47"/>
+      <c r="K294" s="47"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="J295" s="42"/>
-      <c r="K295" s="42"/>
+      <c r="J295" s="47"/>
+      <c r="K295" s="47"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="J296" s="42"/>
-      <c r="K296" s="42"/>
+      <c r="J296" s="47"/>
+      <c r="K296" s="47"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="J297" s="42"/>
-      <c r="K297" s="42"/>
+      <c r="J297" s="47"/>
+      <c r="K297" s="47"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="J298" s="42"/>
-      <c r="K298" s="42"/>
+      <c r="J298" s="47"/>
+      <c r="K298" s="47"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="J299" s="42"/>
-      <c r="K299" s="42"/>
+      <c r="J299" s="47"/>
+      <c r="K299" s="47"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="J300" s="42"/>
-      <c r="K300" s="42"/>
+      <c r="J300" s="47"/>
+      <c r="K300" s="47"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="J301" s="42"/>
-      <c r="K301" s="42"/>
+      <c r="J301" s="47"/>
+      <c r="K301" s="47"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="J302" s="42"/>
-      <c r="K302" s="42"/>
+      <c r="J302" s="47"/>
+      <c r="K302" s="47"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="J303" s="42"/>
-      <c r="K303" s="42"/>
+      <c r="J303" s="47"/>
+      <c r="K303" s="47"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="J304" s="42"/>
-      <c r="K304" s="42"/>
+      <c r="J304" s="47"/>
+      <c r="K304" s="47"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="J305" s="42"/>
-      <c r="K305" s="42"/>
+      <c r="J305" s="47"/>
+      <c r="K305" s="47"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="J306" s="42"/>
-      <c r="K306" s="42"/>
+      <c r="J306" s="47"/>
+      <c r="K306" s="47"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="J307" s="42"/>
-      <c r="K307" s="42"/>
+      <c r="J307" s="47"/>
+      <c r="K307" s="47"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="J308" s="42"/>
-      <c r="K308" s="42"/>
+      <c r="J308" s="47"/>
+      <c r="K308" s="47"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="J309" s="42"/>
-      <c r="K309" s="42"/>
+      <c r="J309" s="47"/>
+      <c r="K309" s="47"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="J310" s="42"/>
-      <c r="K310" s="42"/>
+      <c r="J310" s="47"/>
+      <c r="K310" s="47"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="J311" s="42"/>
-      <c r="K311" s="42"/>
+      <c r="J311" s="47"/>
+      <c r="K311" s="47"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="J312" s="42"/>
-      <c r="K312" s="42"/>
+      <c r="J312" s="47"/>
+      <c r="K312" s="47"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="J313" s="42"/>
-      <c r="K313" s="42"/>
+      <c r="J313" s="47"/>
+      <c r="K313" s="47"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="J314" s="42"/>
-      <c r="K314" s="42"/>
+      <c r="J314" s="47"/>
+      <c r="K314" s="47"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="J315" s="42"/>
-      <c r="K315" s="42"/>
+      <c r="J315" s="47"/>
+      <c r="K315" s="47"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="J316" s="42"/>
-      <c r="K316" s="42"/>
+      <c r="J316" s="47"/>
+      <c r="K316" s="47"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="J317" s="42"/>
-      <c r="K317" s="42"/>
+      <c r="J317" s="47"/>
+      <c r="K317" s="47"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="J318" s="42"/>
-      <c r="K318" s="42"/>
+      <c r="J318" s="47"/>
+      <c r="K318" s="47"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="J319" s="42"/>
-      <c r="K319" s="42"/>
+      <c r="J319" s="47"/>
+      <c r="K319" s="47"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="J320" s="42"/>
-      <c r="K320" s="42"/>
+      <c r="J320" s="47"/>
+      <c r="K320" s="47"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="J321" s="42"/>
-      <c r="K321" s="42"/>
+      <c r="J321" s="47"/>
+      <c r="K321" s="47"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="J322" s="42"/>
-      <c r="K322" s="42"/>
+      <c r="J322" s="47"/>
+      <c r="K322" s="47"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="J323" s="42"/>
-      <c r="K323" s="42"/>
+      <c r="J323" s="47"/>
+      <c r="K323" s="47"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="J324" s="42"/>
-      <c r="K324" s="42"/>
+      <c r="J324" s="47"/>
+      <c r="K324" s="47"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="J325" s="42"/>
-      <c r="K325" s="42"/>
+      <c r="J325" s="47"/>
+      <c r="K325" s="47"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="J326" s="42"/>
-      <c r="K326" s="42"/>
+      <c r="J326" s="47"/>
+      <c r="K326" s="47"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="J327" s="42"/>
-      <c r="K327" s="42"/>
+      <c r="J327" s="47"/>
+      <c r="K327" s="47"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="J328" s="42"/>
-      <c r="K328" s="42"/>
+      <c r="J328" s="47"/>
+      <c r="K328" s="47"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="J329" s="42"/>
-      <c r="K329" s="42"/>
+      <c r="J329" s="47"/>
+      <c r="K329" s="47"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="J330" s="42"/>
-      <c r="K330" s="42"/>
+      <c r="J330" s="47"/>
+      <c r="K330" s="47"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="J331" s="42"/>
-      <c r="K331" s="42"/>
+      <c r="J331" s="47"/>
+      <c r="K331" s="47"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="J332" s="42"/>
-      <c r="K332" s="42"/>
+      <c r="J332" s="47"/>
+      <c r="K332" s="47"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="J333" s="42"/>
-      <c r="K333" s="42"/>
+      <c r="J333" s="47"/>
+      <c r="K333" s="47"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="J334" s="42"/>
-      <c r="K334" s="42"/>
+      <c r="J334" s="47"/>
+      <c r="K334" s="47"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="J335" s="42"/>
-      <c r="K335" s="42"/>
+      <c r="J335" s="47"/>
+      <c r="K335" s="47"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="J336" s="42"/>
-      <c r="K336" s="42"/>
+      <c r="J336" s="47"/>
+      <c r="K336" s="47"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="J337" s="42"/>
-      <c r="K337" s="42"/>
+      <c r="J337" s="47"/>
+      <c r="K337" s="47"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="J338" s="42"/>
-      <c r="K338" s="42"/>
+      <c r="J338" s="47"/>
+      <c r="K338" s="47"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="J339" s="42"/>
-      <c r="K339" s="42"/>
+      <c r="J339" s="47"/>
+      <c r="K339" s="47"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="J340" s="42"/>
-      <c r="K340" s="42"/>
+      <c r="J340" s="47"/>
+      <c r="K340" s="47"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="J341" s="42"/>
-      <c r="K341" s="42"/>
+      <c r="J341" s="47"/>
+      <c r="K341" s="47"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="J342" s="42"/>
-      <c r="K342" s="42"/>
+      <c r="J342" s="47"/>
+      <c r="K342" s="47"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="J343" s="42"/>
-      <c r="K343" s="42"/>
+      <c r="J343" s="47"/>
+      <c r="K343" s="47"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="J344" s="42"/>
-      <c r="K344" s="42"/>
+      <c r="J344" s="47"/>
+      <c r="K344" s="47"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="J345" s="42"/>
-      <c r="K345" s="42"/>
+      <c r="J345" s="47"/>
+      <c r="K345" s="47"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="J346" s="42"/>
-      <c r="K346" s="42"/>
+      <c r="J346" s="47"/>
+      <c r="K346" s="47"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="J347" s="42"/>
-      <c r="K347" s="42"/>
+      <c r="J347" s="47"/>
+      <c r="K347" s="47"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="J348" s="42"/>
-      <c r="K348" s="42"/>
+      <c r="J348" s="47"/>
+      <c r="K348" s="47"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="J349" s="42"/>
-      <c r="K349" s="42"/>
+      <c r="J349" s="47"/>
+      <c r="K349" s="47"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="J350" s="42"/>
-      <c r="K350" s="42"/>
+      <c r="J350" s="47"/>
+      <c r="K350" s="47"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="J351" s="42"/>
-      <c r="K351" s="42"/>
+      <c r="J351" s="47"/>
+      <c r="K351" s="47"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="J352" s="42"/>
-      <c r="K352" s="42"/>
+      <c r="J352" s="47"/>
+      <c r="K352" s="47"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="J353" s="42"/>
-      <c r="K353" s="42"/>
+      <c r="J353" s="47"/>
+      <c r="K353" s="47"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="J354" s="42"/>
-      <c r="K354" s="42"/>
+      <c r="J354" s="47"/>
+      <c r="K354" s="47"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="J355" s="42"/>
-      <c r="K355" s="42"/>
+      <c r="J355" s="47"/>
+      <c r="K355" s="47"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="J356" s="42"/>
-      <c r="K356" s="42"/>
+      <c r="J356" s="47"/>
+      <c r="K356" s="47"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="J357" s="42"/>
-      <c r="K357" s="42"/>
+      <c r="J357" s="47"/>
+      <c r="K357" s="47"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="J358" s="42"/>
-      <c r="K358" s="42"/>
+      <c r="J358" s="47"/>
+      <c r="K358" s="47"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="J359" s="42"/>
-      <c r="K359" s="42"/>
+      <c r="J359" s="47"/>
+      <c r="K359" s="47"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="J360" s="42"/>
-      <c r="K360" s="42"/>
+      <c r="J360" s="47"/>
+      <c r="K360" s="47"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="J361" s="42"/>
-      <c r="K361" s="42"/>
+      <c r="J361" s="47"/>
+      <c r="K361" s="47"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="J362" s="42"/>
-      <c r="K362" s="42"/>
+      <c r="J362" s="47"/>
+      <c r="K362" s="47"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="J363" s="42"/>
-      <c r="K363" s="42"/>
+      <c r="J363" s="47"/>
+      <c r="K363" s="47"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="J364" s="42"/>
-      <c r="K364" s="42"/>
+      <c r="J364" s="47"/>
+      <c r="K364" s="47"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="J365" s="42"/>
-      <c r="K365" s="42"/>
+      <c r="J365" s="47"/>
+      <c r="K365" s="47"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="J366" s="42"/>
-      <c r="K366" s="42"/>
+      <c r="J366" s="47"/>
+      <c r="K366" s="47"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="J367" s="42"/>
-      <c r="K367" s="42"/>
+      <c r="J367" s="47"/>
+      <c r="K367" s="47"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="J368" s="42"/>
-      <c r="K368" s="42"/>
+      <c r="J368" s="47"/>
+      <c r="K368" s="47"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="J369" s="42"/>
-      <c r="K369" s="42"/>
+      <c r="J369" s="47"/>
+      <c r="K369" s="47"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="J370" s="42"/>
-      <c r="K370" s="42"/>
+      <c r="J370" s="47"/>
+      <c r="K370" s="47"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="J371" s="42"/>
-      <c r="K371" s="42"/>
+      <c r="J371" s="47"/>
+      <c r="K371" s="47"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="J372" s="42"/>
-      <c r="K372" s="42"/>
+      <c r="J372" s="47"/>
+      <c r="K372" s="47"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="J373" s="42"/>
-      <c r="K373" s="42"/>
+      <c r="J373" s="47"/>
+      <c r="K373" s="47"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="J374" s="42"/>
-      <c r="K374" s="42"/>
+      <c r="J374" s="47"/>
+      <c r="K374" s="47"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="J375" s="42"/>
-      <c r="K375" s="42"/>
+      <c r="J375" s="47"/>
+      <c r="K375" s="47"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="J376" s="42"/>
-      <c r="K376" s="42"/>
+      <c r="J376" s="47"/>
+      <c r="K376" s="47"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="J377" s="42"/>
-      <c r="K377" s="42"/>
+      <c r="J377" s="47"/>
+      <c r="K377" s="47"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="J378" s="42"/>
-      <c r="K378" s="42"/>
+      <c r="J378" s="47"/>
+      <c r="K378" s="47"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="J379" s="42"/>
-      <c r="K379" s="42"/>
+      <c r="J379" s="47"/>
+      <c r="K379" s="47"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="J380" s="42"/>
-      <c r="K380" s="42"/>
+      <c r="J380" s="47"/>
+      <c r="K380" s="47"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="J381" s="42"/>
-      <c r="K381" s="42"/>
+      <c r="J381" s="47"/>
+      <c r="K381" s="47"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="J382" s="42"/>
-      <c r="K382" s="42"/>
+      <c r="J382" s="47"/>
+      <c r="K382" s="47"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="J383" s="42"/>
-      <c r="K383" s="42"/>
+      <c r="J383" s="47"/>
+      <c r="K383" s="47"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="J384" s="42"/>
-      <c r="K384" s="42"/>
+      <c r="J384" s="47"/>
+      <c r="K384" s="47"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="J385" s="42"/>
-      <c r="K385" s="42"/>
+      <c r="J385" s="47"/>
+      <c r="K385" s="47"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="J386" s="42"/>
-      <c r="K386" s="42"/>
+      <c r="J386" s="47"/>
+      <c r="K386" s="47"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="J387" s="42"/>
-      <c r="K387" s="42"/>
+      <c r="J387" s="47"/>
+      <c r="K387" s="47"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="J388" s="42"/>
-      <c r="K388" s="42"/>
+      <c r="J388" s="47"/>
+      <c r="K388" s="47"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="J389" s="42"/>
-      <c r="K389" s="42"/>
+      <c r="J389" s="47"/>
+      <c r="K389" s="47"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="J390" s="42"/>
-      <c r="K390" s="42"/>
+      <c r="J390" s="47"/>
+      <c r="K390" s="47"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="J391" s="42"/>
-      <c r="K391" s="42"/>
+      <c r="J391" s="47"/>
+      <c r="K391" s="47"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="J392" s="42"/>
-      <c r="K392" s="42"/>
+      <c r="J392" s="47"/>
+      <c r="K392" s="47"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="J393" s="42"/>
-      <c r="K393" s="42"/>
+      <c r="J393" s="47"/>
+      <c r="K393" s="47"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="J394" s="42"/>
-      <c r="K394" s="42"/>
+      <c r="J394" s="47"/>
+      <c r="K394" s="47"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="J395" s="42"/>
-      <c r="K395" s="42"/>
+      <c r="J395" s="47"/>
+      <c r="K395" s="47"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="J396" s="42"/>
-      <c r="K396" s="42"/>
+      <c r="J396" s="47"/>
+      <c r="K396" s="47"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="J397" s="42"/>
-      <c r="K397" s="42"/>
+      <c r="J397" s="47"/>
+      <c r="K397" s="47"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="J398" s="42"/>
-      <c r="K398" s="42"/>
+      <c r="J398" s="47"/>
+      <c r="K398" s="47"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="J399" s="42"/>
-      <c r="K399" s="42"/>
+      <c r="J399" s="47"/>
+      <c r="K399" s="47"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="J400" s="42"/>
-      <c r="K400" s="42"/>
+      <c r="J400" s="47"/>
+      <c r="K400" s="47"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="J401" s="42"/>
-      <c r="K401" s="42"/>
+      <c r="J401" s="47"/>
+      <c r="K401" s="47"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="J402" s="42"/>
-      <c r="K402" s="42"/>
+      <c r="J402" s="47"/>
+      <c r="K402" s="47"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="J403" s="42"/>
-      <c r="K403" s="42"/>
+      <c r="J403" s="47"/>
+      <c r="K403" s="47"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="J404" s="42"/>
-      <c r="K404" s="42"/>
+      <c r="J404" s="47"/>
+      <c r="K404" s="47"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="J405" s="42"/>
-      <c r="K405" s="42"/>
+      <c r="J405" s="47"/>
+      <c r="K405" s="47"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="J406" s="42"/>
-      <c r="K406" s="42"/>
+      <c r="J406" s="47"/>
+      <c r="K406" s="47"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="J407" s="42"/>
-      <c r="K407" s="42"/>
+      <c r="J407" s="47"/>
+      <c r="K407" s="47"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="J408" s="42"/>
-      <c r="K408" s="42"/>
+      <c r="J408" s="47"/>
+      <c r="K408" s="47"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="J409" s="42"/>
-      <c r="K409" s="42"/>
+      <c r="J409" s="47"/>
+      <c r="K409" s="47"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="J410" s="42"/>
-      <c r="K410" s="42"/>
+      <c r="J410" s="47"/>
+      <c r="K410" s="47"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="J411" s="42"/>
-      <c r="K411" s="42"/>
+      <c r="J411" s="47"/>
+      <c r="K411" s="47"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="J412" s="42"/>
-      <c r="K412" s="42"/>
+      <c r="J412" s="47"/>
+      <c r="K412" s="47"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="J413" s="42"/>
-      <c r="K413" s="42"/>
+      <c r="J413" s="47"/>
+      <c r="K413" s="47"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="J414" s="42"/>
-      <c r="K414" s="42"/>
+      <c r="J414" s="47"/>
+      <c r="K414" s="47"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="J415" s="42"/>
-      <c r="K415" s="42"/>
+      <c r="J415" s="47"/>
+      <c r="K415" s="47"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="J416" s="42"/>
-      <c r="K416" s="42"/>
+      <c r="J416" s="47"/>
+      <c r="K416" s="47"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="J417" s="42"/>
-      <c r="K417" s="42"/>
+      <c r="J417" s="47"/>
+      <c r="K417" s="47"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="J418" s="42"/>
-      <c r="K418" s="42"/>
+      <c r="J418" s="47"/>
+      <c r="K418" s="47"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="J419" s="42"/>
-      <c r="K419" s="42"/>
+      <c r="J419" s="47"/>
+      <c r="K419" s="47"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="J420" s="42"/>
-      <c r="K420" s="42"/>
+      <c r="J420" s="47"/>
+      <c r="K420" s="47"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="J421" s="42"/>
-      <c r="K421" s="42"/>
+      <c r="J421" s="47"/>
+      <c r="K421" s="47"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="J422" s="42"/>
-      <c r="K422" s="42"/>
+      <c r="J422" s="47"/>
+      <c r="K422" s="47"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="J423" s="42"/>
-      <c r="K423" s="42"/>
+      <c r="J423" s="47"/>
+      <c r="K423" s="47"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="J424" s="42"/>
-      <c r="K424" s="42"/>
+      <c r="J424" s="47"/>
+      <c r="K424" s="47"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="J425" s="42"/>
-      <c r="K425" s="42"/>
+      <c r="J425" s="47"/>
+      <c r="K425" s="47"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="J426" s="42"/>
-      <c r="K426" s="42"/>
+      <c r="J426" s="47"/>
+      <c r="K426" s="47"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="J427" s="42"/>
-      <c r="K427" s="42"/>
+      <c r="J427" s="47"/>
+      <c r="K427" s="47"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="J428" s="42"/>
-      <c r="K428" s="42"/>
+      <c r="J428" s="47"/>
+      <c r="K428" s="47"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="J429" s="42"/>
-      <c r="K429" s="42"/>
+      <c r="J429" s="47"/>
+      <c r="K429" s="47"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="J430" s="42"/>
-      <c r="K430" s="42"/>
+      <c r="J430" s="47"/>
+      <c r="K430" s="47"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="J431" s="42"/>
-      <c r="K431" s="42"/>
+      <c r="J431" s="47"/>
+      <c r="K431" s="47"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="J432" s="42"/>
-      <c r="K432" s="42"/>
+      <c r="J432" s="47"/>
+      <c r="K432" s="47"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="J433" s="42"/>
-      <c r="K433" s="42"/>
+      <c r="J433" s="47"/>
+      <c r="K433" s="47"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="J434" s="42"/>
-      <c r="K434" s="42"/>
+      <c r="J434" s="47"/>
+      <c r="K434" s="47"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="J435" s="42"/>
-      <c r="K435" s="42"/>
+      <c r="J435" s="47"/>
+      <c r="K435" s="47"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="J436" s="42"/>
-      <c r="K436" s="42"/>
+      <c r="J436" s="47"/>
+      <c r="K436" s="47"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="J437" s="42"/>
-      <c r="K437" s="42"/>
+      <c r="J437" s="47"/>
+      <c r="K437" s="47"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="J438" s="42"/>
-      <c r="K438" s="42"/>
+      <c r="J438" s="47"/>
+      <c r="K438" s="47"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="J439" s="42"/>
-      <c r="K439" s="42"/>
+      <c r="J439" s="47"/>
+      <c r="K439" s="47"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="J440" s="42"/>
-      <c r="K440" s="42"/>
+      <c r="J440" s="47"/>
+      <c r="K440" s="47"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="J441" s="42"/>
-      <c r="K441" s="42"/>
+      <c r="J441" s="47"/>
+      <c r="K441" s="47"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="J442" s="42"/>
-      <c r="K442" s="42"/>
+      <c r="J442" s="47"/>
+      <c r="K442" s="47"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="J443" s="42"/>
-      <c r="K443" s="42"/>
+      <c r="J443" s="47"/>
+      <c r="K443" s="47"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="J444" s="42"/>
-      <c r="K444" s="42"/>
+      <c r="J444" s="47"/>
+      <c r="K444" s="47"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="J445" s="42"/>
-      <c r="K445" s="42"/>
+      <c r="J445" s="47"/>
+      <c r="K445" s="47"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="J446" s="42"/>
-      <c r="K446" s="42"/>
+      <c r="J446" s="47"/>
+      <c r="K446" s="47"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="J447" s="42"/>
-      <c r="K447" s="42"/>
+      <c r="J447" s="47"/>
+      <c r="K447" s="47"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="J448" s="42"/>
-      <c r="K448" s="42"/>
+      <c r="J448" s="47"/>
+      <c r="K448" s="47"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="J449" s="42"/>
-      <c r="K449" s="42"/>
+      <c r="J449" s="47"/>
+      <c r="K449" s="47"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="J450" s="42"/>
-      <c r="K450" s="42"/>
+      <c r="J450" s="47"/>
+      <c r="K450" s="47"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="J451" s="42"/>
-      <c r="K451" s="42"/>
+      <c r="J451" s="47"/>
+      <c r="K451" s="47"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="J452" s="42"/>
-      <c r="K452" s="42"/>
+      <c r="J452" s="47"/>
+      <c r="K452" s="47"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="J453" s="42"/>
-      <c r="K453" s="42"/>
+      <c r="J453" s="47"/>
+      <c r="K453" s="47"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="J454" s="42"/>
-      <c r="K454" s="42"/>
+      <c r="J454" s="47"/>
+      <c r="K454" s="47"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="J455" s="42"/>
-      <c r="K455" s="42"/>
+      <c r="J455" s="47"/>
+      <c r="K455" s="47"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="J456" s="42"/>
-      <c r="K456" s="42"/>
+      <c r="J456" s="47"/>
+      <c r="K456" s="47"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="J457" s="42"/>
-      <c r="K457" s="42"/>
+      <c r="J457" s="47"/>
+      <c r="K457" s="47"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="J458" s="42"/>
-      <c r="K458" s="42"/>
+      <c r="J458" s="47"/>
+      <c r="K458" s="47"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="J459" s="42"/>
-      <c r="K459" s="42"/>
+      <c r="J459" s="47"/>
+      <c r="K459" s="47"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="J460" s="42"/>
-      <c r="K460" s="42"/>
+      <c r="J460" s="47"/>
+      <c r="K460" s="47"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="J461" s="42"/>
-      <c r="K461" s="42"/>
+      <c r="J461" s="47"/>
+      <c r="K461" s="47"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="J462" s="42"/>
-      <c r="K462" s="42"/>
+      <c r="J462" s="47"/>
+      <c r="K462" s="47"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="J463" s="42"/>
-      <c r="K463" s="42"/>
+      <c r="J463" s="47"/>
+      <c r="K463" s="47"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="J464" s="42"/>
-      <c r="K464" s="42"/>
+      <c r="J464" s="47"/>
+      <c r="K464" s="47"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="J465" s="42"/>
-      <c r="K465" s="42"/>
+      <c r="J465" s="47"/>
+      <c r="K465" s="47"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="J466" s="42"/>
-      <c r="K466" s="42"/>
+      <c r="J466" s="47"/>
+      <c r="K466" s="47"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="J467" s="42"/>
-      <c r="K467" s="42"/>
+      <c r="J467" s="47"/>
+      <c r="K467" s="47"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="J468" s="42"/>
-      <c r="K468" s="42"/>
+      <c r="J468" s="47"/>
+      <c r="K468" s="47"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="J469" s="42"/>
-      <c r="K469" s="42"/>
+      <c r="J469" s="47"/>
+      <c r="K469" s="47"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="J470" s="42"/>
-      <c r="K470" s="42"/>
+      <c r="J470" s="47"/>
+      <c r="K470" s="47"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="J471" s="42"/>
-      <c r="K471" s="42"/>
+      <c r="J471" s="47"/>
+      <c r="K471" s="47"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="J472" s="42"/>
-      <c r="K472" s="42"/>
+      <c r="J472" s="47"/>
+      <c r="K472" s="47"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="J473" s="42"/>
-      <c r="K473" s="42"/>
+      <c r="J473" s="47"/>
+      <c r="K473" s="47"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="J474" s="42"/>
-      <c r="K474" s="42"/>
+      <c r="J474" s="47"/>
+      <c r="K474" s="47"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="J475" s="42"/>
-      <c r="K475" s="42"/>
+      <c r="J475" s="47"/>
+      <c r="K475" s="47"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="J476" s="42"/>
-      <c r="K476" s="42"/>
+      <c r="J476" s="47"/>
+      <c r="K476" s="47"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="J477" s="42"/>
-      <c r="K477" s="42"/>
+      <c r="J477" s="47"/>
+      <c r="K477" s="47"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="J478" s="42"/>
-      <c r="K478" s="42"/>
+      <c r="J478" s="47"/>
+      <c r="K478" s="47"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="J479" s="42"/>
-      <c r="K479" s="42"/>
+      <c r="J479" s="47"/>
+      <c r="K479" s="47"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="J480" s="42"/>
-      <c r="K480" s="42"/>
+      <c r="J480" s="47"/>
+      <c r="K480" s="47"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="J481" s="42"/>
-      <c r="K481" s="42"/>
+      <c r="J481" s="47"/>
+      <c r="K481" s="47"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="J482" s="42"/>
-      <c r="K482" s="42"/>
+      <c r="J482" s="47"/>
+      <c r="K482" s="47"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="J483" s="42"/>
-      <c r="K483" s="42"/>
+      <c r="J483" s="47"/>
+      <c r="K483" s="47"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="J484" s="42"/>
-      <c r="K484" s="42"/>
+      <c r="J484" s="47"/>
+      <c r="K484" s="47"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="J485" s="42"/>
-      <c r="K485" s="42"/>
+      <c r="J485" s="47"/>
+      <c r="K485" s="47"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="J486" s="42"/>
-      <c r="K486" s="42"/>
+      <c r="J486" s="47"/>
+      <c r="K486" s="47"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="J487" s="42"/>
-      <c r="K487" s="42"/>
+      <c r="J487" s="47"/>
+      <c r="K487" s="47"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="J488" s="42"/>
-      <c r="K488" s="42"/>
+      <c r="J488" s="47"/>
+      <c r="K488" s="47"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="J489" s="42"/>
-      <c r="K489" s="42"/>
+      <c r="J489" s="47"/>
+      <c r="K489" s="47"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="J490" s="42"/>
-      <c r="K490" s="42"/>
+      <c r="J490" s="47"/>
+      <c r="K490" s="47"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="J491" s="42"/>
-      <c r="K491" s="42"/>
+      <c r="J491" s="47"/>
+      <c r="K491" s="47"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="J492" s="42"/>
-      <c r="K492" s="42"/>
+      <c r="J492" s="47"/>
+      <c r="K492" s="47"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="J493" s="42"/>
-      <c r="K493" s="42"/>
+      <c r="J493" s="47"/>
+      <c r="K493" s="47"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="J494" s="42"/>
-      <c r="K494" s="42"/>
+      <c r="J494" s="47"/>
+      <c r="K494" s="47"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="J495" s="42"/>
-      <c r="K495" s="42"/>
+      <c r="J495" s="47"/>
+      <c r="K495" s="47"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="J496" s="42"/>
-      <c r="K496" s="42"/>
+      <c r="J496" s="47"/>
+      <c r="K496" s="47"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="J497" s="42"/>
-      <c r="K497" s="42"/>
+      <c r="J497" s="47"/>
+      <c r="K497" s="47"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="J498" s="42"/>
-      <c r="K498" s="42"/>
+      <c r="J498" s="47"/>
+      <c r="K498" s="47"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="J499" s="42"/>
-      <c r="K499" s="42"/>
+      <c r="J499" s="47"/>
+      <c r="K499" s="47"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="J500" s="42"/>
-      <c r="K500" s="42"/>
+      <c r="J500" s="47"/>
+      <c r="K500" s="47"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="J501" s="42"/>
-      <c r="K501" s="42"/>
+      <c r="J501" s="47"/>
+      <c r="K501" s="47"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="J502" s="42"/>
-      <c r="K502" s="42"/>
+      <c r="J502" s="47"/>
+      <c r="K502" s="47"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="J503" s="42"/>
-      <c r="K503" s="42"/>
+      <c r="J503" s="47"/>
+      <c r="K503" s="47"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="J504" s="42"/>
-      <c r="K504" s="42"/>
+      <c r="J504" s="47"/>
+      <c r="K504" s="47"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="J505" s="42"/>
-      <c r="K505" s="42"/>
+      <c r="J505" s="47"/>
+      <c r="K505" s="47"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="J506" s="42"/>
-      <c r="K506" s="42"/>
+      <c r="J506" s="47"/>
+      <c r="K506" s="47"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="J507" s="42"/>
-      <c r="K507" s="42"/>
+      <c r="J507" s="47"/>
+      <c r="K507" s="47"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="J508" s="42"/>
-      <c r="K508" s="42"/>
+      <c r="J508" s="47"/>
+      <c r="K508" s="47"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="J509" s="42"/>
-      <c r="K509" s="42"/>
+      <c r="J509" s="47"/>
+      <c r="K509" s="47"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="J510" s="42"/>
-      <c r="K510" s="42"/>
+      <c r="J510" s="47"/>
+      <c r="K510" s="47"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="J511" s="42"/>
-      <c r="K511" s="42"/>
+      <c r="J511" s="47"/>
+      <c r="K511" s="47"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="J512" s="42"/>
-      <c r="K512" s="42"/>
+      <c r="J512" s="47"/>
+      <c r="K512" s="47"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="J513" s="42"/>
-      <c r="K513" s="42"/>
+      <c r="J513" s="47"/>
+      <c r="K513" s="47"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="J514" s="42"/>
-      <c r="K514" s="42"/>
+      <c r="J514" s="47"/>
+      <c r="K514" s="47"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="J515" s="42"/>
-      <c r="K515" s="42"/>
+      <c r="J515" s="47"/>
+      <c r="K515" s="47"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="J516" s="42"/>
-      <c r="K516" s="42"/>
+      <c r="J516" s="47"/>
+      <c r="K516" s="47"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="J517" s="42"/>
-      <c r="K517" s="42"/>
+      <c r="J517" s="47"/>
+      <c r="K517" s="47"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="J518" s="42"/>
-      <c r="K518" s="42"/>
+      <c r="J518" s="47"/>
+      <c r="K518" s="47"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="J519" s="42"/>
-      <c r="K519" s="42"/>
+      <c r="J519" s="47"/>
+      <c r="K519" s="47"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="J520" s="42"/>
-      <c r="K520" s="42"/>
+      <c r="J520" s="47"/>
+      <c r="K520" s="47"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="J521" s="42"/>
-      <c r="K521" s="42"/>
+      <c r="J521" s="47"/>
+      <c r="K521" s="47"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="J522" s="42"/>
-      <c r="K522" s="42"/>
+      <c r="J522" s="47"/>
+      <c r="K522" s="47"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="J523" s="42"/>
-      <c r="K523" s="42"/>
+      <c r="J523" s="47"/>
+      <c r="K523" s="47"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="J524" s="42"/>
-      <c r="K524" s="42"/>
+      <c r="J524" s="47"/>
+      <c r="K524" s="47"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="J525" s="42"/>
-      <c r="K525" s="42"/>
+      <c r="J525" s="47"/>
+      <c r="K525" s="47"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="J526" s="42"/>
-      <c r="K526" s="42"/>
+      <c r="J526" s="47"/>
+      <c r="K526" s="47"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="J527" s="42"/>
-      <c r="K527" s="42"/>
+      <c r="J527" s="47"/>
+      <c r="K527" s="47"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="J528" s="42"/>
-      <c r="K528" s="42"/>
+      <c r="J528" s="47"/>
+      <c r="K528" s="47"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="J529" s="42"/>
-      <c r="K529" s="42"/>
+      <c r="J529" s="47"/>
+      <c r="K529" s="47"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="J530" s="42"/>
-      <c r="K530" s="42"/>
+      <c r="J530" s="47"/>
+      <c r="K530" s="47"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="J531" s="42"/>
-      <c r="K531" s="42"/>
+      <c r="J531" s="47"/>
+      <c r="K531" s="47"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="J532" s="42"/>
-      <c r="K532" s="42"/>
+      <c r="J532" s="47"/>
+      <c r="K532" s="47"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="J533" s="42"/>
-      <c r="K533" s="42"/>
+      <c r="J533" s="47"/>
+      <c r="K533" s="47"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="J534" s="42"/>
-      <c r="K534" s="42"/>
+      <c r="J534" s="47"/>
+      <c r="K534" s="47"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="J535" s="42"/>
-      <c r="K535" s="42"/>
+      <c r="J535" s="47"/>
+      <c r="K535" s="47"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="J536" s="42"/>
-      <c r="K536" s="42"/>
+      <c r="J536" s="47"/>
+      <c r="K536" s="47"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="J537" s="42"/>
-      <c r="K537" s="42"/>
+      <c r="J537" s="47"/>
+      <c r="K537" s="47"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="J538" s="42"/>
-      <c r="K538" s="42"/>
+      <c r="J538" s="47"/>
+      <c r="K538" s="47"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="J539" s="42"/>
-      <c r="K539" s="42"/>
+      <c r="J539" s="47"/>
+      <c r="K539" s="47"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="J540" s="42"/>
-      <c r="K540" s="42"/>
+      <c r="J540" s="47"/>
+      <c r="K540" s="47"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="J541" s="42"/>
-      <c r="K541" s="42"/>
+      <c r="J541" s="47"/>
+      <c r="K541" s="47"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="J542" s="42"/>
-      <c r="K542" s="42"/>
+      <c r="J542" s="47"/>
+      <c r="K542" s="47"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="J543" s="42"/>
-      <c r="K543" s="42"/>
+      <c r="J543" s="47"/>
+      <c r="K543" s="47"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="J544" s="42"/>
-      <c r="K544" s="42"/>
+      <c r="J544" s="47"/>
+      <c r="K544" s="47"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="J545" s="42"/>
-      <c r="K545" s="42"/>
+      <c r="J545" s="47"/>
+      <c r="K545" s="47"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="J546" s="42"/>
-      <c r="K546" s="42"/>
+      <c r="J546" s="47"/>
+      <c r="K546" s="47"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="J547" s="42"/>
-      <c r="K547" s="42"/>
+      <c r="J547" s="47"/>
+      <c r="K547" s="47"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="J548" s="42"/>
-      <c r="K548" s="42"/>
+      <c r="J548" s="47"/>
+      <c r="K548" s="47"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="J549" s="42"/>
-      <c r="K549" s="42"/>
+      <c r="J549" s="47"/>
+      <c r="K549" s="47"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="J550" s="42"/>
-      <c r="K550" s="42"/>
+      <c r="J550" s="47"/>
+      <c r="K550" s="47"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="J551" s="42"/>
-      <c r="K551" s="42"/>
+      <c r="J551" s="47"/>
+      <c r="K551" s="47"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="J552" s="42"/>
-      <c r="K552" s="42"/>
+      <c r="J552" s="47"/>
+      <c r="K552" s="47"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="J553" s="42"/>
-      <c r="K553" s="42"/>
+      <c r="J553" s="47"/>
+      <c r="K553" s="47"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="J554" s="42"/>
-      <c r="K554" s="42"/>
+      <c r="J554" s="47"/>
+      <c r="K554" s="47"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="J555" s="42"/>
-      <c r="K555" s="42"/>
+      <c r="J555" s="47"/>
+      <c r="K555" s="47"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="J556" s="42"/>
-      <c r="K556" s="42"/>
+      <c r="J556" s="47"/>
+      <c r="K556" s="47"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="J557" s="42"/>
-      <c r="K557" s="42"/>
+      <c r="J557" s="47"/>
+      <c r="K557" s="47"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="J558" s="42"/>
-      <c r="K558" s="42"/>
+      <c r="J558" s="47"/>
+      <c r="K558" s="47"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="J559" s="42"/>
-      <c r="K559" s="42"/>
+      <c r="J559" s="47"/>
+      <c r="K559" s="47"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="J560" s="42"/>
-      <c r="K560" s="42"/>
+      <c r="J560" s="47"/>
+      <c r="K560" s="47"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="J561" s="42"/>
-      <c r="K561" s="42"/>
+      <c r="J561" s="47"/>
+      <c r="K561" s="47"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="J562" s="42"/>
-      <c r="K562" s="42"/>
+      <c r="J562" s="47"/>
+      <c r="K562" s="47"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="J563" s="42"/>
-      <c r="K563" s="42"/>
+      <c r="J563" s="47"/>
+      <c r="K563" s="47"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="J564" s="42"/>
-      <c r="K564" s="42"/>
+      <c r="J564" s="47"/>
+      <c r="K564" s="47"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="J565" s="42"/>
-      <c r="K565" s="42"/>
+      <c r="J565" s="47"/>
+      <c r="K565" s="47"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="J566" s="42"/>
-      <c r="K566" s="42"/>
+      <c r="J566" s="47"/>
+      <c r="K566" s="47"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="J567" s="42"/>
-      <c r="K567" s="42"/>
+      <c r="J567" s="47"/>
+      <c r="K567" s="47"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="J568" s="42"/>
-      <c r="K568" s="42"/>
+      <c r="J568" s="47"/>
+      <c r="K568" s="47"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="J569" s="42"/>
-      <c r="K569" s="42"/>
+      <c r="J569" s="47"/>
+      <c r="K569" s="47"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="J570" s="42"/>
-      <c r="K570" s="42"/>
+      <c r="J570" s="47"/>
+      <c r="K570" s="47"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="J571" s="42"/>
-      <c r="K571" s="42"/>
+      <c r="J571" s="47"/>
+      <c r="K571" s="47"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="J572" s="42"/>
-      <c r="K572" s="42"/>
+      <c r="J572" s="47"/>
+      <c r="K572" s="47"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="J573" s="42"/>
-      <c r="K573" s="42"/>
+      <c r="J573" s="47"/>
+      <c r="K573" s="47"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="J574" s="42"/>
-      <c r="K574" s="42"/>
+      <c r="J574" s="47"/>
+      <c r="K574" s="47"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="J575" s="42"/>
-      <c r="K575" s="42"/>
+      <c r="J575" s="47"/>
+      <c r="K575" s="47"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="J576" s="42"/>
-      <c r="K576" s="42"/>
+      <c r="J576" s="47"/>
+      <c r="K576" s="47"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="J577" s="42"/>
-      <c r="K577" s="42"/>
+      <c r="J577" s="47"/>
+      <c r="K577" s="47"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="J578" s="42"/>
-      <c r="K578" s="42"/>
+      <c r="J578" s="47"/>
+      <c r="K578" s="47"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="J579" s="42"/>
-      <c r="K579" s="42"/>
+      <c r="J579" s="47"/>
+      <c r="K579" s="47"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="J580" s="42"/>
-      <c r="K580" s="42"/>
+      <c r="J580" s="47"/>
+      <c r="K580" s="47"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="J581" s="42"/>
-      <c r="K581" s="42"/>
+      <c r="J581" s="47"/>
+      <c r="K581" s="47"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="J582" s="42"/>
-      <c r="K582" s="42"/>
+      <c r="J582" s="47"/>
+      <c r="K582" s="47"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="J583" s="42"/>
-      <c r="K583" s="42"/>
+      <c r="J583" s="47"/>
+      <c r="K583" s="47"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="J584" s="42"/>
-      <c r="K584" s="42"/>
+      <c r="J584" s="47"/>
+      <c r="K584" s="47"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="J585" s="42"/>
-      <c r="K585" s="42"/>
+      <c r="J585" s="47"/>
+      <c r="K585" s="47"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="J586" s="42"/>
-      <c r="K586" s="42"/>
+      <c r="J586" s="47"/>
+      <c r="K586" s="47"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="J587" s="42"/>
-      <c r="K587" s="42"/>
+      <c r="J587" s="47"/>
+      <c r="K587" s="47"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="J588" s="42"/>
-      <c r="K588" s="42"/>
+      <c r="J588" s="47"/>
+      <c r="K588" s="47"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="J589" s="42"/>
-      <c r="K589" s="42"/>
+      <c r="J589" s="47"/>
+      <c r="K589" s="47"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="J590" s="42"/>
-      <c r="K590" s="42"/>
+      <c r="J590" s="47"/>
+      <c r="K590" s="47"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="J591" s="42"/>
-      <c r="K591" s="42"/>
+      <c r="J591" s="47"/>
+      <c r="K591" s="47"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="J592" s="42"/>
-      <c r="K592" s="42"/>
+      <c r="J592" s="47"/>
+      <c r="K592" s="47"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="J593" s="42"/>
-      <c r="K593" s="42"/>
+      <c r="J593" s="47"/>
+      <c r="K593" s="47"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="J594" s="42"/>
-      <c r="K594" s="42"/>
+      <c r="J594" s="47"/>
+      <c r="K594" s="47"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="J595" s="42"/>
-      <c r="K595" s="42"/>
+      <c r="J595" s="47"/>
+      <c r="K595" s="47"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="J596" s="42"/>
-      <c r="K596" s="42"/>
+      <c r="J596" s="47"/>
+      <c r="K596" s="47"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="J597" s="42"/>
-      <c r="K597" s="42"/>
+      <c r="J597" s="47"/>
+      <c r="K597" s="47"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="J598" s="42"/>
-      <c r="K598" s="42"/>
+      <c r="J598" s="47"/>
+      <c r="K598" s="47"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="J599" s="42"/>
-      <c r="K599" s="42"/>
+      <c r="J599" s="47"/>
+      <c r="K599" s="47"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="J600" s="42"/>
-      <c r="K600" s="42"/>
+      <c r="J600" s="47"/>
+      <c r="K600" s="47"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="J601" s="42"/>
-      <c r="K601" s="42"/>
+      <c r="J601" s="47"/>
+      <c r="K601" s="47"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="J602" s="42"/>
-      <c r="K602" s="42"/>
+      <c r="J602" s="47"/>
+      <c r="K602" s="47"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="J603" s="42"/>
-      <c r="K603" s="42"/>
+      <c r="J603" s="47"/>
+      <c r="K603" s="47"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="J604" s="42"/>
-      <c r="K604" s="42"/>
+      <c r="J604" s="47"/>
+      <c r="K604" s="47"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="J605" s="42"/>
-      <c r="K605" s="42"/>
+      <c r="J605" s="47"/>
+      <c r="K605" s="47"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="J606" s="42"/>
-      <c r="K606" s="42"/>
+      <c r="J606" s="47"/>
+      <c r="K606" s="47"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="J607" s="42"/>
-      <c r="K607" s="42"/>
+      <c r="J607" s="47"/>
+      <c r="K607" s="47"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="J608" s="42"/>
-      <c r="K608" s="42"/>
+      <c r="J608" s="47"/>
+      <c r="K608" s="47"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="J609" s="42"/>
-      <c r="K609" s="42"/>
+      <c r="J609" s="47"/>
+      <c r="K609" s="47"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="J610" s="42"/>
-      <c r="K610" s="42"/>
+      <c r="J610" s="47"/>
+      <c r="K610" s="47"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="J611" s="42"/>
-      <c r="K611" s="42"/>
+      <c r="J611" s="47"/>
+      <c r="K611" s="47"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="J612" s="42"/>
-      <c r="K612" s="42"/>
+      <c r="J612" s="47"/>
+      <c r="K612" s="47"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="J613" s="42"/>
-      <c r="K613" s="42"/>
+      <c r="J613" s="47"/>
+      <c r="K613" s="47"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="J614" s="42"/>
-      <c r="K614" s="42"/>
+      <c r="J614" s="47"/>
+      <c r="K614" s="47"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="J615" s="42"/>
-      <c r="K615" s="42"/>
+      <c r="J615" s="47"/>
+      <c r="K615" s="47"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="J616" s="42"/>
-      <c r="K616" s="42"/>
+      <c r="J616" s="47"/>
+      <c r="K616" s="47"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="J617" s="42"/>
-      <c r="K617" s="42"/>
+      <c r="J617" s="47"/>
+      <c r="K617" s="47"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="J618" s="42"/>
-      <c r="K618" s="42"/>
+      <c r="J618" s="47"/>
+      <c r="K618" s="47"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="J619" s="42"/>
-      <c r="K619" s="42"/>
+      <c r="J619" s="47"/>
+      <c r="K619" s="47"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="J620" s="42"/>
-      <c r="K620" s="42"/>
+      <c r="J620" s="47"/>
+      <c r="K620" s="47"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="J621" s="42"/>
-      <c r="K621" s="42"/>
+      <c r="J621" s="47"/>
+      <c r="K621" s="47"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="J622" s="42"/>
-      <c r="K622" s="42"/>
+      <c r="J622" s="47"/>
+      <c r="K622" s="47"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="J623" s="42"/>
-      <c r="K623" s="42"/>
+      <c r="J623" s="47"/>
+      <c r="K623" s="47"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="J624" s="42"/>
-      <c r="K624" s="42"/>
+      <c r="J624" s="47"/>
+      <c r="K624" s="47"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="J625" s="42"/>
-      <c r="K625" s="42"/>
+      <c r="J625" s="47"/>
+      <c r="K625" s="47"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="J626" s="42"/>
-      <c r="K626" s="42"/>
+      <c r="J626" s="47"/>
+      <c r="K626" s="47"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="J627" s="42"/>
-      <c r="K627" s="42"/>
+      <c r="J627" s="47"/>
+      <c r="K627" s="47"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="J628" s="42"/>
-      <c r="K628" s="42"/>
+      <c r="J628" s="47"/>
+      <c r="K628" s="47"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="J629" s="42"/>
-      <c r="K629" s="42"/>
+      <c r="J629" s="47"/>
+      <c r="K629" s="47"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="J630" s="42"/>
-      <c r="K630" s="42"/>
+      <c r="J630" s="47"/>
+      <c r="K630" s="47"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="J631" s="42"/>
-      <c r="K631" s="42"/>
+      <c r="J631" s="47"/>
+      <c r="K631" s="47"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="J632" s="42"/>
-      <c r="K632" s="42"/>
+      <c r="J632" s="47"/>
+      <c r="K632" s="47"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="J633" s="42"/>
-      <c r="K633" s="42"/>
+      <c r="J633" s="47"/>
+      <c r="K633" s="47"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="J634" s="42"/>
-      <c r="K634" s="42"/>
+      <c r="J634" s="47"/>
+      <c r="K634" s="47"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="J635" s="42"/>
-      <c r="K635" s="42"/>
+      <c r="J635" s="47"/>
+      <c r="K635" s="47"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="J636" s="42"/>
-      <c r="K636" s="42"/>
+      <c r="J636" s="47"/>
+      <c r="K636" s="47"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="J637" s="42"/>
-      <c r="K637" s="42"/>
+      <c r="J637" s="47"/>
+      <c r="K637" s="47"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="J638" s="42"/>
-      <c r="K638" s="42"/>
+      <c r="J638" s="47"/>
+      <c r="K638" s="47"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="J639" s="42"/>
-      <c r="K639" s="42"/>
+      <c r="J639" s="47"/>
+      <c r="K639" s="47"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="J640" s="42"/>
-      <c r="K640" s="42"/>
+      <c r="J640" s="47"/>
+      <c r="K640" s="47"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="J641" s="42"/>
-      <c r="K641" s="42"/>
+      <c r="J641" s="47"/>
+      <c r="K641" s="47"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="J642" s="42"/>
-      <c r="K642" s="42"/>
+      <c r="J642" s="47"/>
+      <c r="K642" s="47"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="J643" s="42"/>
-      <c r="K643" s="42"/>
+      <c r="J643" s="47"/>
+      <c r="K643" s="47"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="J644" s="42"/>
-      <c r="K644" s="42"/>
+      <c r="J644" s="47"/>
+      <c r="K644" s="47"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="J645" s="42"/>
-      <c r="K645" s="42"/>
+      <c r="J645" s="47"/>
+      <c r="K645" s="47"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="J646" s="42"/>
-      <c r="K646" s="42"/>
+      <c r="J646" s="47"/>
+      <c r="K646" s="47"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="J647" s="42"/>
-      <c r="K647" s="42"/>
+      <c r="J647" s="47"/>
+      <c r="K647" s="47"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="J648" s="42"/>
-      <c r="K648" s="42"/>
+      <c r="J648" s="47"/>
+      <c r="K648" s="47"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="J649" s="42"/>
-      <c r="K649" s="42"/>
+      <c r="J649" s="47"/>
+      <c r="K649" s="47"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="J650" s="42"/>
-      <c r="K650" s="42"/>
+      <c r="J650" s="47"/>
+      <c r="K650" s="47"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="J651" s="42"/>
-      <c r="K651" s="42"/>
+      <c r="J651" s="47"/>
+      <c r="K651" s="47"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="J652" s="42"/>
-      <c r="K652" s="42"/>
+      <c r="J652" s="47"/>
+      <c r="K652" s="47"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="J653" s="42"/>
-      <c r="K653" s="42"/>
+      <c r="J653" s="47"/>
+      <c r="K653" s="47"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="J654" s="42"/>
-      <c r="K654" s="42"/>
+      <c r="J654" s="47"/>
+      <c r="K654" s="47"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="J655" s="42"/>
-      <c r="K655" s="42"/>
+      <c r="J655" s="47"/>
+      <c r="K655" s="47"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="J656" s="42"/>
-      <c r="K656" s="42"/>
+      <c r="J656" s="47"/>
+      <c r="K656" s="47"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="J657" s="42"/>
-      <c r="K657" s="42"/>
+      <c r="J657" s="47"/>
+      <c r="K657" s="47"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="J658" s="42"/>
-      <c r="K658" s="42"/>
+      <c r="J658" s="47"/>
+      <c r="K658" s="47"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="J659" s="42"/>
-      <c r="K659" s="42"/>
+      <c r="J659" s="47"/>
+      <c r="K659" s="47"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="J660" s="42"/>
-      <c r="K660" s="42"/>
+      <c r="J660" s="47"/>
+      <c r="K660" s="47"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="J661" s="42"/>
-      <c r="K661" s="42"/>
+      <c r="J661" s="47"/>
+      <c r="K661" s="47"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="J662" s="42"/>
-      <c r="K662" s="42"/>
+      <c r="J662" s="47"/>
+      <c r="K662" s="47"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="J663" s="42"/>
-      <c r="K663" s="42"/>
+      <c r="J663" s="47"/>
+      <c r="K663" s="47"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="J664" s="42"/>
-      <c r="K664" s="42"/>
+      <c r="J664" s="47"/>
+      <c r="K664" s="47"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="J665" s="42"/>
-      <c r="K665" s="42"/>
+      <c r="J665" s="47"/>
+      <c r="K665" s="47"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="J666" s="42"/>
-      <c r="K666" s="42"/>
+      <c r="J666" s="47"/>
+      <c r="K666" s="47"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="J667" s="42"/>
-      <c r="K667" s="42"/>
+      <c r="J667" s="47"/>
+      <c r="K667" s="47"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="J668" s="42"/>
-      <c r="K668" s="42"/>
+      <c r="J668" s="47"/>
+      <c r="K668" s="47"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="J669" s="42"/>
-      <c r="K669" s="42"/>
+      <c r="J669" s="47"/>
+      <c r="K669" s="47"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="J670" s="42"/>
-      <c r="K670" s="42"/>
+      <c r="J670" s="47"/>
+      <c r="K670" s="47"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="J671" s="42"/>
-      <c r="K671" s="42"/>
+      <c r="J671" s="47"/>
+      <c r="K671" s="47"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="J672" s="42"/>
-      <c r="K672" s="42"/>
+      <c r="J672" s="47"/>
+      <c r="K672" s="47"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="J673" s="42"/>
-      <c r="K673" s="42"/>
+      <c r="J673" s="47"/>
+      <c r="K673" s="47"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="J674" s="42"/>
-      <c r="K674" s="42"/>
+      <c r="J674" s="47"/>
+      <c r="K674" s="47"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="J675" s="42"/>
-      <c r="K675" s="42"/>
+      <c r="J675" s="47"/>
+      <c r="K675" s="47"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="J676" s="42"/>
-      <c r="K676" s="42"/>
+      <c r="J676" s="47"/>
+      <c r="K676" s="47"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="J677" s="42"/>
-      <c r="K677" s="42"/>
+      <c r="J677" s="47"/>
+      <c r="K677" s="47"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="J678" s="42"/>
-      <c r="K678" s="42"/>
+      <c r="J678" s="47"/>
+      <c r="K678" s="47"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="J679" s="42"/>
-      <c r="K679" s="42"/>
+      <c r="J679" s="47"/>
+      <c r="K679" s="47"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="J680" s="42"/>
-      <c r="K680" s="42"/>
+      <c r="J680" s="47"/>
+      <c r="K680" s="47"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="J681" s="42"/>
-      <c r="K681" s="42"/>
+      <c r="J681" s="47"/>
+      <c r="K681" s="47"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="J682" s="42"/>
-      <c r="K682" s="42"/>
+      <c r="J682" s="47"/>
+      <c r="K682" s="47"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="J683" s="42"/>
-      <c r="K683" s="42"/>
+      <c r="J683" s="47"/>
+      <c r="K683" s="47"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="J684" s="42"/>
-      <c r="K684" s="42"/>
+      <c r="J684" s="47"/>
+      <c r="K684" s="47"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="J685" s="42"/>
-      <c r="K685" s="42"/>
+      <c r="J685" s="47"/>
+      <c r="K685" s="47"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="J686" s="42"/>
-      <c r="K686" s="42"/>
+      <c r="J686" s="47"/>
+      <c r="K686" s="47"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="J687" s="42"/>
-      <c r="K687" s="42"/>
+      <c r="J687" s="47"/>
+      <c r="K687" s="47"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="J688" s="42"/>
-      <c r="K688" s="42"/>
+      <c r="J688" s="47"/>
+      <c r="K688" s="47"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="J689" s="42"/>
-      <c r="K689" s="42"/>
+      <c r="J689" s="47"/>
+      <c r="K689" s="47"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="J690" s="42"/>
-      <c r="K690" s="42"/>
+      <c r="J690" s="47"/>
+      <c r="K690" s="47"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="J691" s="42"/>
-      <c r="K691" s="42"/>
+      <c r="J691" s="47"/>
+      <c r="K691" s="47"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="J692" s="42"/>
-      <c r="K692" s="42"/>
+      <c r="J692" s="47"/>
+      <c r="K692" s="47"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="J693" s="42"/>
-      <c r="K693" s="42"/>
+      <c r="J693" s="47"/>
+      <c r="K693" s="47"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="J694" s="42"/>
-      <c r="K694" s="42"/>
+      <c r="J694" s="47"/>
+      <c r="K694" s="47"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="J695" s="42"/>
-      <c r="K695" s="42"/>
+      <c r="J695" s="47"/>
+      <c r="K695" s="47"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="J696" s="42"/>
-      <c r="K696" s="42"/>
+      <c r="J696" s="47"/>
+      <c r="K696" s="47"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="J697" s="42"/>
-      <c r="K697" s="42"/>
+      <c r="J697" s="47"/>
+      <c r="K697" s="47"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="J698" s="42"/>
-      <c r="K698" s="42"/>
+      <c r="J698" s="47"/>
+      <c r="K698" s="47"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="J699" s="42"/>
-      <c r="K699" s="42"/>
+      <c r="J699" s="47"/>
+      <c r="K699" s="47"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="J700" s="42"/>
-      <c r="K700" s="42"/>
+      <c r="J700" s="47"/>
+      <c r="K700" s="47"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="J701" s="42"/>
-      <c r="K701" s="42"/>
+      <c r="J701" s="47"/>
+      <c r="K701" s="47"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="J702" s="42"/>
-      <c r="K702" s="42"/>
+      <c r="J702" s="47"/>
+      <c r="K702" s="47"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="J703" s="42"/>
-      <c r="K703" s="42"/>
+      <c r="J703" s="47"/>
+      <c r="K703" s="47"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="J704" s="42"/>
-      <c r="K704" s="42"/>
+      <c r="J704" s="47"/>
+      <c r="K704" s="47"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="J705" s="42"/>
-      <c r="K705" s="42"/>
+      <c r="J705" s="47"/>
+      <c r="K705" s="47"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="J706" s="42"/>
-      <c r="K706" s="42"/>
+      <c r="J706" s="47"/>
+      <c r="K706" s="47"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="J707" s="42"/>
-      <c r="K707" s="42"/>
+      <c r="J707" s="47"/>
+      <c r="K707" s="47"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="J708" s="42"/>
-      <c r="K708" s="42"/>
+      <c r="J708" s="47"/>
+      <c r="K708" s="47"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="J709" s="42"/>
-      <c r="K709" s="42"/>
+      <c r="J709" s="47"/>
+      <c r="K709" s="47"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="J710" s="42"/>
-      <c r="K710" s="42"/>
+      <c r="J710" s="47"/>
+      <c r="K710" s="47"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="J711" s="42"/>
-      <c r="K711" s="42"/>
+      <c r="J711" s="47"/>
+      <c r="K711" s="47"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="J712" s="42"/>
-      <c r="K712" s="42"/>
+      <c r="J712" s="47"/>
+      <c r="K712" s="47"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="J713" s="42"/>
-      <c r="K713" s="42"/>
+      <c r="J713" s="47"/>
+      <c r="K713" s="47"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="J714" s="42"/>
-      <c r="K714" s="42"/>
+      <c r="J714" s="47"/>
+      <c r="K714" s="47"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="J715" s="42"/>
-      <c r="K715" s="42"/>
+      <c r="J715" s="47"/>
+      <c r="K715" s="47"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="J716" s="42"/>
-      <c r="K716" s="42"/>
+      <c r="J716" s="47"/>
+      <c r="K716" s="47"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="J717" s="42"/>
-      <c r="K717" s="42"/>
+      <c r="J717" s="47"/>
+      <c r="K717" s="47"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="J718" s="42"/>
-      <c r="K718" s="42"/>
+      <c r="J718" s="47"/>
+      <c r="K718" s="47"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="J719" s="42"/>
-      <c r="K719" s="42"/>
+      <c r="J719" s="47"/>
+      <c r="K719" s="47"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="J720" s="42"/>
-      <c r="K720" s="42"/>
+      <c r="J720" s="47"/>
+      <c r="K720" s="47"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="J721" s="42"/>
-      <c r="K721" s="42"/>
+      <c r="J721" s="47"/>
+      <c r="K721" s="47"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="J722" s="42"/>
-      <c r="K722" s="42"/>
+      <c r="J722" s="47"/>
+      <c r="K722" s="47"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="J723" s="42"/>
-      <c r="K723" s="42"/>
+      <c r="J723" s="47"/>
+      <c r="K723" s="47"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="J724" s="42"/>
-      <c r="K724" s="42"/>
+      <c r="J724" s="47"/>
+      <c r="K724" s="47"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="J725" s="42"/>
-      <c r="K725" s="42"/>
+      <c r="J725" s="47"/>
+      <c r="K725" s="47"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="J726" s="42"/>
-      <c r="K726" s="42"/>
+      <c r="J726" s="47"/>
+      <c r="K726" s="47"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="J727" s="42"/>
-      <c r="K727" s="42"/>
+      <c r="J727" s="47"/>
+      <c r="K727" s="47"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="J728" s="42"/>
-      <c r="K728" s="42"/>
+      <c r="J728" s="47"/>
+      <c r="K728" s="47"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="J729" s="42"/>
-      <c r="K729" s="42"/>
+      <c r="J729" s="47"/>
+      <c r="K729" s="47"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="J730" s="42"/>
-      <c r="K730" s="42"/>
+      <c r="J730" s="47"/>
+      <c r="K730" s="47"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="J731" s="42"/>
-      <c r="K731" s="42"/>
+      <c r="J731" s="47"/>
+      <c r="K731" s="47"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="J732" s="42"/>
-      <c r="K732" s="42"/>
+      <c r="J732" s="47"/>
+      <c r="K732" s="47"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="J733" s="42"/>
-      <c r="K733" s="42"/>
+      <c r="J733" s="47"/>
+      <c r="K733" s="47"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="J734" s="42"/>
-      <c r="K734" s="42"/>
+      <c r="J734" s="47"/>
+      <c r="K734" s="47"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="J735" s="42"/>
-      <c r="K735" s="42"/>
+      <c r="J735" s="47"/>
+      <c r="K735" s="47"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="J736" s="42"/>
-      <c r="K736" s="42"/>
+      <c r="J736" s="47"/>
+      <c r="K736" s="47"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="J737" s="42"/>
-      <c r="K737" s="42"/>
+      <c r="J737" s="47"/>
+      <c r="K737" s="47"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="J738" s="42"/>
-      <c r="K738" s="42"/>
+      <c r="J738" s="47"/>
+      <c r="K738" s="47"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="J739" s="42"/>
-      <c r="K739" s="42"/>
+      <c r="J739" s="47"/>
+      <c r="K739" s="47"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="J740" s="42"/>
-      <c r="K740" s="42"/>
+      <c r="J740" s="47"/>
+      <c r="K740" s="47"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="J741" s="42"/>
-      <c r="K741" s="42"/>
+      <c r="J741" s="47"/>
+      <c r="K741" s="47"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="J742" s="42"/>
-      <c r="K742" s="42"/>
+      <c r="J742" s="47"/>
+      <c r="K742" s="47"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="J743" s="42"/>
-      <c r="K743" s="42"/>
+      <c r="J743" s="47"/>
+      <c r="K743" s="47"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="J744" s="42"/>
-      <c r="K744" s="42"/>
+      <c r="J744" s="47"/>
+      <c r="K744" s="47"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="J745" s="42"/>
-      <c r="K745" s="42"/>
+      <c r="J745" s="47"/>
+      <c r="K745" s="47"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="J746" s="42"/>
-      <c r="K746" s="42"/>
+      <c r="J746" s="47"/>
+      <c r="K746" s="47"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="J747" s="42"/>
-      <c r="K747" s="42"/>
+      <c r="J747" s="47"/>
+      <c r="K747" s="47"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="J748" s="42"/>
-      <c r="K748" s="42"/>
+      <c r="J748" s="47"/>
+      <c r="K748" s="47"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="J749" s="42"/>
-      <c r="K749" s="42"/>
+      <c r="J749" s="47"/>
+      <c r="K749" s="47"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="J750" s="42"/>
-      <c r="K750" s="42"/>
+      <c r="J750" s="47"/>
+      <c r="K750" s="47"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="J751" s="42"/>
-      <c r="K751" s="42"/>
+      <c r="J751" s="47"/>
+      <c r="K751" s="47"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="J752" s="42"/>
-      <c r="K752" s="42"/>
+      <c r="J752" s="47"/>
+      <c r="K752" s="47"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="J753" s="42"/>
-      <c r="K753" s="42"/>
+      <c r="J753" s="47"/>
+      <c r="K753" s="47"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="J754" s="42"/>
-      <c r="K754" s="42"/>
+      <c r="J754" s="47"/>
+      <c r="K754" s="47"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="J755" s="42"/>
-      <c r="K755" s="42"/>
+      <c r="J755" s="47"/>
+      <c r="K755" s="47"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="J756" s="42"/>
-      <c r="K756" s="42"/>
+      <c r="J756" s="47"/>
+      <c r="K756" s="47"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="J757" s="42"/>
-      <c r="K757" s="42"/>
+      <c r="J757" s="47"/>
+      <c r="K757" s="47"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="J758" s="42"/>
-      <c r="K758" s="42"/>
+      <c r="J758" s="47"/>
+      <c r="K758" s="47"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="J759" s="42"/>
-      <c r="K759" s="42"/>
+      <c r="J759" s="47"/>
+      <c r="K759" s="47"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="J760" s="42"/>
-      <c r="K760" s="42"/>
+      <c r="J760" s="47"/>
+      <c r="K760" s="47"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="J761" s="42"/>
-      <c r="K761" s="42"/>
+      <c r="J761" s="47"/>
+      <c r="K761" s="47"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="J762" s="42"/>
-      <c r="K762" s="42"/>
+      <c r="J762" s="47"/>
+      <c r="K762" s="47"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="J763" s="42"/>
-      <c r="K763" s="42"/>
+      <c r="J763" s="47"/>
+      <c r="K763" s="47"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="J764" s="42"/>
-      <c r="K764" s="42"/>
+      <c r="J764" s="47"/>
+      <c r="K764" s="47"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="J765" s="42"/>
-      <c r="K765" s="42"/>
+      <c r="J765" s="47"/>
+      <c r="K765" s="47"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="J766" s="42"/>
-      <c r="K766" s="42"/>
+      <c r="J766" s="47"/>
+      <c r="K766" s="47"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="J767" s="42"/>
-      <c r="K767" s="42"/>
+      <c r="J767" s="47"/>
+      <c r="K767" s="47"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="J768" s="42"/>
-      <c r="K768" s="42"/>
+      <c r="J768" s="47"/>
+      <c r="K768" s="47"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="J769" s="42"/>
-      <c r="K769" s="42"/>
+      <c r="J769" s="47"/>
+      <c r="K769" s="47"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="J770" s="42"/>
-      <c r="K770" s="42"/>
+      <c r="J770" s="47"/>
+      <c r="K770" s="47"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="J771" s="42"/>
-      <c r="K771" s="42"/>
+      <c r="J771" s="47"/>
+      <c r="K771" s="47"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="J772" s="42"/>
-      <c r="K772" s="42"/>
+      <c r="J772" s="47"/>
+      <c r="K772" s="47"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="J773" s="42"/>
-      <c r="K773" s="42"/>
+      <c r="J773" s="47"/>
+      <c r="K773" s="47"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="J774" s="42"/>
-      <c r="K774" s="42"/>
+      <c r="J774" s="47"/>
+      <c r="K774" s="47"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="J775" s="42"/>
-      <c r="K775" s="42"/>
+      <c r="J775" s="47"/>
+      <c r="K775" s="47"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="J776" s="42"/>
-      <c r="K776" s="42"/>
+      <c r="J776" s="47"/>
+      <c r="K776" s="47"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="J777" s="42"/>
-      <c r="K777" s="42"/>
+      <c r="J777" s="47"/>
+      <c r="K777" s="47"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="J778" s="42"/>
-      <c r="K778" s="42"/>
+      <c r="J778" s="47"/>
+      <c r="K778" s="47"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="J779" s="42"/>
-      <c r="K779" s="42"/>
+      <c r="J779" s="47"/>
+      <c r="K779" s="47"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="J780" s="42"/>
-      <c r="K780" s="42"/>
+      <c r="J780" s="47"/>
+      <c r="K780" s="47"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="J781" s="42"/>
-      <c r="K781" s="42"/>
+      <c r="J781" s="47"/>
+      <c r="K781" s="47"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="J782" s="42"/>
-      <c r="K782" s="42"/>
+      <c r="J782" s="47"/>
+      <c r="K782" s="47"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="J783" s="42"/>
-      <c r="K783" s="42"/>
+      <c r="J783" s="47"/>
+      <c r="K783" s="47"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="J784" s="42"/>
-      <c r="K784" s="42"/>
+      <c r="J784" s="47"/>
+      <c r="K784" s="47"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="J785" s="42"/>
-      <c r="K785" s="42"/>
+      <c r="J785" s="47"/>
+      <c r="K785" s="47"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="J786" s="42"/>
-      <c r="K786" s="42"/>
+      <c r="J786" s="47"/>
+      <c r="K786" s="47"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="J787" s="42"/>
-      <c r="K787" s="42"/>
+      <c r="J787" s="47"/>
+      <c r="K787" s="47"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="J788" s="42"/>
-      <c r="K788" s="42"/>
+      <c r="J788" s="47"/>
+      <c r="K788" s="47"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="J789" s="42"/>
-      <c r="K789" s="42"/>
+      <c r="J789" s="47"/>
+      <c r="K789" s="47"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="J790" s="42"/>
-      <c r="K790" s="42"/>
+      <c r="J790" s="47"/>
+      <c r="K790" s="47"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="J791" s="42"/>
-      <c r="K791" s="42"/>
+      <c r="J791" s="47"/>
+      <c r="K791" s="47"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="J792" s="42"/>
-      <c r="K792" s="42"/>
+      <c r="J792" s="47"/>
+      <c r="K792" s="47"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="J793" s="42"/>
-      <c r="K793" s="42"/>
+      <c r="J793" s="47"/>
+      <c r="K793" s="47"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="J794" s="42"/>
-      <c r="K794" s="42"/>
+      <c r="J794" s="47"/>
+      <c r="K794" s="47"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="J795" s="42"/>
-      <c r="K795" s="42"/>
+      <c r="J795" s="47"/>
+      <c r="K795" s="47"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="J796" s="42"/>
-      <c r="K796" s="42"/>
+      <c r="J796" s="47"/>
+      <c r="K796" s="47"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="J797" s="42"/>
-      <c r="K797" s="42"/>
+      <c r="J797" s="47"/>
+      <c r="K797" s="47"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="J798" s="42"/>
-      <c r="K798" s="42"/>
+      <c r="J798" s="47"/>
+      <c r="K798" s="47"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="J799" s="42"/>
-      <c r="K799" s="42"/>
+      <c r="J799" s="47"/>
+      <c r="K799" s="47"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="J800" s="42"/>
-      <c r="K800" s="42"/>
+      <c r="J800" s="47"/>
+      <c r="K800" s="47"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="J801" s="42"/>
-      <c r="K801" s="42"/>
+      <c r="J801" s="47"/>
+      <c r="K801" s="47"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="J802" s="42"/>
-      <c r="K802" s="42"/>
+      <c r="J802" s="47"/>
+      <c r="K802" s="47"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="J803" s="42"/>
-      <c r="K803" s="42"/>
+      <c r="J803" s="47"/>
+      <c r="K803" s="47"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="J804" s="42"/>
-      <c r="K804" s="42"/>
+      <c r="J804" s="47"/>
+      <c r="K804" s="47"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="J805" s="42"/>
-      <c r="K805" s="42"/>
+      <c r="J805" s="47"/>
+      <c r="K805" s="47"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="J806" s="42"/>
-      <c r="K806" s="42"/>
+      <c r="J806" s="47"/>
+      <c r="K806" s="47"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="J807" s="42"/>
-      <c r="K807" s="42"/>
+      <c r="J807" s="47"/>
+      <c r="K807" s="47"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="J808" s="42"/>
-      <c r="K808" s="42"/>
+      <c r="J808" s="47"/>
+      <c r="K808" s="47"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="J809" s="42"/>
-      <c r="K809" s="42"/>
+      <c r="J809" s="47"/>
+      <c r="K809" s="47"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="J810" s="42"/>
-      <c r="K810" s="42"/>
+      <c r="J810" s="47"/>
+      <c r="K810" s="47"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="J811" s="42"/>
-      <c r="K811" s="42"/>
+      <c r="J811" s="47"/>
+      <c r="K811" s="47"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="J812" s="42"/>
-      <c r="K812" s="42"/>
+      <c r="J812" s="47"/>
+      <c r="K812" s="47"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="J813" s="42"/>
-      <c r="K813" s="42"/>
+      <c r="J813" s="47"/>
+      <c r="K813" s="47"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="J814" s="42"/>
-      <c r="K814" s="42"/>
+      <c r="J814" s="47"/>
+      <c r="K814" s="47"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="J815" s="42"/>
-      <c r="K815" s="42"/>
+      <c r="J815" s="47"/>
+      <c r="K815" s="47"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="J816" s="42"/>
-      <c r="K816" s="42"/>
+      <c r="J816" s="47"/>
+      <c r="K816" s="47"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="J817" s="42"/>
-      <c r="K817" s="42"/>
+      <c r="J817" s="47"/>
+      <c r="K817" s="47"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="J818" s="42"/>
-      <c r="K818" s="42"/>
+      <c r="J818" s="47"/>
+      <c r="K818" s="47"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="J819" s="42"/>
-      <c r="K819" s="42"/>
+      <c r="J819" s="47"/>
+      <c r="K819" s="47"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="J820" s="42"/>
-      <c r="K820" s="42"/>
+      <c r="J820" s="47"/>
+      <c r="K820" s="47"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="J821" s="42"/>
-      <c r="K821" s="42"/>
+      <c r="J821" s="47"/>
+      <c r="K821" s="47"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="J822" s="42"/>
-      <c r="K822" s="42"/>
+      <c r="J822" s="47"/>
+      <c r="K822" s="47"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="J823" s="42"/>
-      <c r="K823" s="42"/>
+      <c r="J823" s="47"/>
+      <c r="K823" s="47"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="J824" s="42"/>
-      <c r="K824" s="42"/>
+      <c r="J824" s="47"/>
+      <c r="K824" s="47"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="J825" s="42"/>
-      <c r="K825" s="42"/>
+      <c r="J825" s="47"/>
+      <c r="K825" s="47"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="J826" s="42"/>
-      <c r="K826" s="42"/>
+      <c r="J826" s="47"/>
+      <c r="K826" s="47"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="J827" s="42"/>
-      <c r="K827" s="42"/>
+      <c r="J827" s="47"/>
+      <c r="K827" s="47"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="J828" s="42"/>
-      <c r="K828" s="42"/>
+      <c r="J828" s="47"/>
+      <c r="K828" s="47"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="J829" s="42"/>
-      <c r="K829" s="42"/>
+      <c r="J829" s="47"/>
+      <c r="K829" s="47"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="J830" s="42"/>
-      <c r="K830" s="42"/>
+      <c r="J830" s="47"/>
+      <c r="K830" s="47"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="J831" s="42"/>
-      <c r="K831" s="42"/>
+      <c r="J831" s="47"/>
+      <c r="K831" s="47"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="J832" s="42"/>
-      <c r="K832" s="42"/>
+      <c r="J832" s="47"/>
+      <c r="K832" s="47"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="J833" s="42"/>
-      <c r="K833" s="42"/>
+      <c r="J833" s="47"/>
+      <c r="K833" s="47"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="J834" s="42"/>
-      <c r="K834" s="42"/>
+      <c r="J834" s="47"/>
+      <c r="K834" s="47"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="J835" s="42"/>
-      <c r="K835" s="42"/>
+      <c r="J835" s="47"/>
+      <c r="K835" s="47"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="J836" s="42"/>
-      <c r="K836" s="42"/>
+      <c r="J836" s="47"/>
+      <c r="K836" s="47"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="J837" s="42"/>
-      <c r="K837" s="42"/>
+      <c r="J837" s="47"/>
+      <c r="K837" s="47"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="J838" s="42"/>
-      <c r="K838" s="42"/>
+      <c r="J838" s="47"/>
+      <c r="K838" s="47"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="J839" s="42"/>
-      <c r="K839" s="42"/>
+      <c r="J839" s="47"/>
+      <c r="K839" s="47"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="J840" s="42"/>
-      <c r="K840" s="42"/>
+      <c r="J840" s="47"/>
+      <c r="K840" s="47"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="J841" s="42"/>
-      <c r="K841" s="42"/>
+      <c r="J841" s="47"/>
+      <c r="K841" s="47"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="J842" s="42"/>
-      <c r="K842" s="42"/>
+      <c r="J842" s="47"/>
+      <c r="K842" s="47"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="J843" s="42"/>
-      <c r="K843" s="42"/>
+      <c r="J843" s="47"/>
+      <c r="K843" s="47"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="J844" s="42"/>
-      <c r="K844" s="42"/>
+      <c r="J844" s="47"/>
+      <c r="K844" s="47"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="J845" s="42"/>
-      <c r="K845" s="42"/>
+      <c r="J845" s="47"/>
+      <c r="K845" s="47"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="J846" s="42"/>
-      <c r="K846" s="42"/>
+      <c r="J846" s="47"/>
+      <c r="K846" s="47"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="J847" s="42"/>
-      <c r="K847" s="42"/>
+      <c r="J847" s="47"/>
+      <c r="K847" s="47"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="J848" s="42"/>
-      <c r="K848" s="42"/>
+      <c r="J848" s="47"/>
+      <c r="K848" s="47"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="J849" s="42"/>
-      <c r="K849" s="42"/>
+      <c r="J849" s="47"/>
+      <c r="K849" s="47"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="J850" s="42"/>
-      <c r="K850" s="42"/>
+      <c r="J850" s="47"/>
+      <c r="K850" s="47"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="J851" s="42"/>
-      <c r="K851" s="42"/>
+      <c r="J851" s="47"/>
+      <c r="K851" s="47"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="J852" s="42"/>
-      <c r="K852" s="42"/>
+      <c r="J852" s="47"/>
+      <c r="K852" s="47"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="J853" s="42"/>
-      <c r="K853" s="42"/>
+      <c r="J853" s="47"/>
+      <c r="K853" s="47"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="J854" s="42"/>
-      <c r="K854" s="42"/>
+      <c r="J854" s="47"/>
+      <c r="K854" s="47"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="J855" s="42"/>
-      <c r="K855" s="42"/>
+      <c r="J855" s="47"/>
+      <c r="K855" s="47"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="J856" s="42"/>
-      <c r="K856" s="42"/>
+      <c r="J856" s="47"/>
+      <c r="K856" s="47"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="J857" s="42"/>
-      <c r="K857" s="42"/>
+      <c r="J857" s="47"/>
+      <c r="K857" s="47"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="J858" s="42"/>
-      <c r="K858" s="42"/>
+      <c r="J858" s="47"/>
+      <c r="K858" s="47"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="J859" s="42"/>
-      <c r="K859" s="42"/>
+      <c r="J859" s="47"/>
+      <c r="K859" s="47"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="J860" s="42"/>
-      <c r="K860" s="42"/>
+      <c r="J860" s="47"/>
+      <c r="K860" s="47"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="J861" s="42"/>
-      <c r="K861" s="42"/>
+      <c r="J861" s="47"/>
+      <c r="K861" s="47"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="J862" s="42"/>
-      <c r="K862" s="42"/>
+      <c r="J862" s="47"/>
+      <c r="K862" s="47"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="J863" s="42"/>
-      <c r="K863" s="42"/>
+      <c r="J863" s="47"/>
+      <c r="K863" s="47"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="J864" s="42"/>
-      <c r="K864" s="42"/>
+      <c r="J864" s="47"/>
+      <c r="K864" s="47"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="J865" s="42"/>
-      <c r="K865" s="42"/>
+      <c r="J865" s="47"/>
+      <c r="K865" s="47"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="J866" s="42"/>
-      <c r="K866" s="42"/>
+      <c r="J866" s="47"/>
+      <c r="K866" s="47"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="J867" s="42"/>
-      <c r="K867" s="42"/>
+      <c r="J867" s="47"/>
+      <c r="K867" s="47"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="J868" s="42"/>
-      <c r="K868" s="42"/>
+      <c r="J868" s="47"/>
+      <c r="K868" s="47"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="J869" s="42"/>
-      <c r="K869" s="42"/>
+      <c r="J869" s="47"/>
+      <c r="K869" s="47"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="J870" s="42"/>
-      <c r="K870" s="42"/>
+      <c r="J870" s="47"/>
+      <c r="K870" s="47"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="J871" s="42"/>
-      <c r="K871" s="42"/>
+      <c r="J871" s="47"/>
+      <c r="K871" s="47"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="J872" s="42"/>
-      <c r="K872" s="42"/>
+      <c r="J872" s="47"/>
+      <c r="K872" s="47"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="J873" s="42"/>
-      <c r="K873" s="42"/>
+      <c r="J873" s="47"/>
+      <c r="K873" s="47"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="J874" s="42"/>
-      <c r="K874" s="42"/>
+      <c r="J874" s="47"/>
+      <c r="K874" s="47"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="J875" s="42"/>
-      <c r="K875" s="42"/>
+      <c r="J875" s="47"/>
+      <c r="K875" s="47"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="J876" s="42"/>
-      <c r="K876" s="42"/>
+      <c r="J876" s="47"/>
+      <c r="K876" s="47"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="J877" s="42"/>
-      <c r="K877" s="42"/>
+      <c r="J877" s="47"/>
+      <c r="K877" s="47"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="J878" s="42"/>
-      <c r="K878" s="42"/>
+      <c r="J878" s="47"/>
+      <c r="K878" s="47"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="J879" s="42"/>
-      <c r="K879" s="42"/>
+      <c r="J879" s="47"/>
+      <c r="K879" s="47"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="J880" s="42"/>
-      <c r="K880" s="42"/>
+      <c r="J880" s="47"/>
+      <c r="K880" s="47"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="J881" s="42"/>
-      <c r="K881" s="42"/>
+      <c r="J881" s="47"/>
+      <c r="K881" s="47"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="J882" s="42"/>
-      <c r="K882" s="42"/>
+      <c r="J882" s="47"/>
+      <c r="K882" s="47"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="J883" s="42"/>
-      <c r="K883" s="42"/>
+      <c r="J883" s="47"/>
+      <c r="K883" s="47"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="J884" s="42"/>
-      <c r="K884" s="42"/>
+      <c r="J884" s="47"/>
+      <c r="K884" s="47"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="J885" s="42"/>
-      <c r="K885" s="42"/>
+      <c r="J885" s="47"/>
+      <c r="K885" s="47"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="J886" s="42"/>
-      <c r="K886" s="42"/>
+      <c r="J886" s="47"/>
+      <c r="K886" s="47"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="J887" s="42"/>
-      <c r="K887" s="42"/>
+      <c r="J887" s="47"/>
+      <c r="K887" s="47"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="J888" s="42"/>
-      <c r="K888" s="42"/>
+      <c r="J888" s="47"/>
+      <c r="K888" s="47"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="J889" s="42"/>
-      <c r="K889" s="42"/>
+      <c r="J889" s="47"/>
+      <c r="K889" s="47"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="J890" s="42"/>
-      <c r="K890" s="42"/>
+      <c r="J890" s="47"/>
+      <c r="K890" s="47"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="J891" s="42"/>
-      <c r="K891" s="42"/>
+      <c r="J891" s="47"/>
+      <c r="K891" s="47"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="J892" s="42"/>
-      <c r="K892" s="42"/>
+      <c r="J892" s="47"/>
+      <c r="K892" s="47"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="J893" s="42"/>
-      <c r="K893" s="42"/>
+      <c r="J893" s="47"/>
+      <c r="K893" s="47"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="J894" s="42"/>
-      <c r="K894" s="42"/>
+      <c r="J894" s="47"/>
+      <c r="K894" s="47"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="J895" s="42"/>
-      <c r="K895" s="42"/>
+      <c r="J895" s="47"/>
+      <c r="K895" s="47"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="J896" s="42"/>
-      <c r="K896" s="42"/>
+      <c r="J896" s="47"/>
+      <c r="K896" s="47"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="J897" s="42"/>
-      <c r="K897" s="42"/>
+      <c r="J897" s="47"/>
+      <c r="K897" s="47"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="J898" s="42"/>
-      <c r="K898" s="42"/>
+      <c r="J898" s="47"/>
+      <c r="K898" s="47"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="J899" s="42"/>
-      <c r="K899" s="42"/>
+      <c r="J899" s="47"/>
+      <c r="K899" s="47"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="J900" s="42"/>
-      <c r="K900" s="42"/>
+      <c r="J900" s="47"/>
+      <c r="K900" s="47"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="J901" s="42"/>
-      <c r="K901" s="42"/>
+      <c r="J901" s="47"/>
+      <c r="K901" s="47"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="J902" s="42"/>
-      <c r="K902" s="42"/>
+      <c r="J902" s="47"/>
+      <c r="K902" s="47"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="J903" s="42"/>
-      <c r="K903" s="42"/>
+      <c r="J903" s="47"/>
+      <c r="K903" s="47"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="J904" s="42"/>
-      <c r="K904" s="42"/>
+      <c r="J904" s="47"/>
+      <c r="K904" s="47"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="J905" s="42"/>
-      <c r="K905" s="42"/>
+      <c r="J905" s="47"/>
+      <c r="K905" s="47"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="J906" s="42"/>
-      <c r="K906" s="42"/>
+      <c r="J906" s="47"/>
+      <c r="K906" s="47"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="J907" s="42"/>
-      <c r="K907" s="42"/>
+      <c r="J907" s="47"/>
+      <c r="K907" s="47"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="J908" s="42"/>
-      <c r="K908" s="42"/>
+      <c r="J908" s="47"/>
+      <c r="K908" s="47"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="J909" s="42"/>
-      <c r="K909" s="42"/>
+      <c r="J909" s="47"/>
+      <c r="K909" s="47"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="J910" s="42"/>
-      <c r="K910" s="42"/>
+      <c r="J910" s="47"/>
+      <c r="K910" s="47"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="J911" s="42"/>
-      <c r="K911" s="42"/>
+      <c r="J911" s="47"/>
+      <c r="K911" s="47"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="J912" s="42"/>
-      <c r="K912" s="42"/>
+      <c r="J912" s="47"/>
+      <c r="K912" s="47"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="J913" s="42"/>
-      <c r="K913" s="42"/>
+      <c r="J913" s="47"/>
+      <c r="K913" s="47"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="J914" s="42"/>
-      <c r="K914" s="42"/>
+      <c r="J914" s="47"/>
+      <c r="K914" s="47"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="J915" s="42"/>
-      <c r="K915" s="42"/>
+      <c r="J915" s="47"/>
+      <c r="K915" s="47"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="J916" s="42"/>
-      <c r="K916" s="42"/>
+      <c r="J916" s="47"/>
+      <c r="K916" s="47"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="J917" s="42"/>
-      <c r="K917" s="42"/>
+      <c r="J917" s="47"/>
+      <c r="K917" s="47"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="J918" s="42"/>
-      <c r="K918" s="42"/>
+      <c r="J918" s="47"/>
+      <c r="K918" s="47"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="J919" s="42"/>
-      <c r="K919" s="42"/>
+      <c r="J919" s="47"/>
+      <c r="K919" s="47"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="J920" s="42"/>
-      <c r="K920" s="42"/>
+      <c r="J920" s="47"/>
+      <c r="K920" s="47"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="J921" s="42"/>
-      <c r="K921" s="42"/>
+      <c r="J921" s="47"/>
+      <c r="K921" s="47"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="J922" s="42"/>
-      <c r="K922" s="42"/>
+      <c r="J922" s="47"/>
+      <c r="K922" s="47"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="J923" s="42"/>
-      <c r="K923" s="42"/>
+      <c r="J923" s="47"/>
+      <c r="K923" s="47"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="J924" s="42"/>
-      <c r="K924" s="42"/>
+      <c r="J924" s="47"/>
+      <c r="K924" s="47"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="J925" s="42"/>
-      <c r="K925" s="42"/>
+      <c r="J925" s="47"/>
+      <c r="K925" s="47"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="J926" s="42"/>
-      <c r="K926" s="42"/>
+      <c r="J926" s="47"/>
+      <c r="K926" s="47"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="J927" s="42"/>
-      <c r="K927" s="42"/>
+      <c r="J927" s="47"/>
+      <c r="K927" s="47"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="J928" s="42"/>
-      <c r="K928" s="42"/>
+      <c r="J928" s="47"/>
+      <c r="K928" s="47"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="J929" s="42"/>
-      <c r="K929" s="42"/>
+      <c r="J929" s="47"/>
+      <c r="K929" s="47"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="J930" s="42"/>
-      <c r="K930" s="42"/>
+      <c r="J930" s="47"/>
+      <c r="K930" s="47"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="J931" s="42"/>
-      <c r="K931" s="42"/>
+      <c r="J931" s="47"/>
+      <c r="K931" s="47"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="J932" s="42"/>
-      <c r="K932" s="42"/>
+      <c r="J932" s="47"/>
+      <c r="K932" s="47"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="J933" s="42"/>
-      <c r="K933" s="42"/>
+      <c r="J933" s="47"/>
+      <c r="K933" s="47"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="J934" s="42"/>
-      <c r="K934" s="42"/>
+      <c r="J934" s="47"/>
+      <c r="K934" s="47"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="J935" s="42"/>
-      <c r="K935" s="42"/>
+      <c r="J935" s="47"/>
+      <c r="K935" s="47"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="J936" s="42"/>
-      <c r="K936" s="42"/>
+      <c r="J936" s="47"/>
+      <c r="K936" s="47"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="J937" s="42"/>
-      <c r="K937" s="42"/>
+      <c r="J937" s="47"/>
+      <c r="K937" s="47"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="J938" s="42"/>
-      <c r="K938" s="42"/>
+      <c r="J938" s="47"/>
+      <c r="K938" s="47"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="J939" s="42"/>
-      <c r="K939" s="42"/>
+      <c r="J939" s="47"/>
+      <c r="K939" s="47"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="J940" s="42"/>
-      <c r="K940" s="42"/>
+      <c r="J940" s="47"/>
+      <c r="K940" s="47"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="J941" s="42"/>
-      <c r="K941" s="42"/>
+      <c r="J941" s="47"/>
+      <c r="K941" s="47"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="J942" s="42"/>
-      <c r="K942" s="42"/>
+      <c r="J942" s="47"/>
+      <c r="K942" s="47"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="J943" s="42"/>
-      <c r="K943" s="42"/>
+      <c r="J943" s="47"/>
+      <c r="K943" s="47"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="J944" s="42"/>
-      <c r="K944" s="42"/>
+      <c r="J944" s="47"/>
+      <c r="K944" s="47"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="J945" s="42"/>
-      <c r="K945" s="42"/>
+      <c r="J945" s="47"/>
+      <c r="K945" s="47"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="J946" s="42"/>
-      <c r="K946" s="42"/>
+      <c r="J946" s="47"/>
+      <c r="K946" s="47"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="J947" s="42"/>
-      <c r="K947" s="42"/>
+      <c r="J947" s="47"/>
+      <c r="K947" s="47"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="J948" s="42"/>
-      <c r="K948" s="42"/>
+      <c r="J948" s="47"/>
+      <c r="K948" s="47"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="J949" s="42"/>
-      <c r="K949" s="42"/>
+      <c r="J949" s="47"/>
+      <c r="K949" s="47"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="J950" s="42"/>
-      <c r="K950" s="42"/>
+      <c r="J950" s="47"/>
+      <c r="K950" s="47"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="J951" s="42"/>
-      <c r="K951" s="42"/>
+      <c r="J951" s="47"/>
+      <c r="K951" s="47"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="J952" s="42"/>
-      <c r="K952" s="42"/>
+      <c r="J952" s="47"/>
+      <c r="K952" s="47"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="J953" s="42"/>
-      <c r="K953" s="42"/>
+      <c r="J953" s="47"/>
+      <c r="K953" s="47"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="J954" s="42"/>
-      <c r="K954" s="42"/>
+      <c r="J954" s="47"/>
+      <c r="K954" s="47"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="J955" s="42"/>
-      <c r="K955" s="42"/>
+      <c r="J955" s="47"/>
+      <c r="K955" s="47"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="J956" s="42"/>
-      <c r="K956" s="42"/>
+      <c r="J956" s="47"/>
+      <c r="K956" s="47"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="J957" s="42"/>
-      <c r="K957" s="42"/>
+      <c r="J957" s="47"/>
+      <c r="K957" s="47"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="J958" s="42"/>
-      <c r="K958" s="42"/>
+      <c r="J958" s="47"/>
+      <c r="K958" s="47"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="J959" s="42"/>
-      <c r="K959" s="42"/>
+      <c r="J959" s="47"/>
+      <c r="K959" s="47"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="J960" s="42"/>
-      <c r="K960" s="42"/>
+      <c r="J960" s="47"/>
+      <c r="K960" s="47"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="J961" s="42"/>
-      <c r="K961" s="42"/>
+      <c r="J961" s="47"/>
+      <c r="K961" s="47"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="J962" s="42"/>
-      <c r="K962" s="42"/>
+      <c r="J962" s="47"/>
+      <c r="K962" s="47"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="J963" s="42"/>
-      <c r="K963" s="42"/>
+      <c r="J963" s="47"/>
+      <c r="K963" s="47"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="J964" s="42"/>
-      <c r="K964" s="42"/>
+      <c r="J964" s="47"/>
+      <c r="K964" s="47"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="J965" s="42"/>
-      <c r="K965" s="42"/>
+      <c r="J965" s="47"/>
+      <c r="K965" s="47"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="J966" s="42"/>
-      <c r="K966" s="42"/>
+      <c r="J966" s="47"/>
+      <c r="K966" s="47"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="J967" s="42"/>
-      <c r="K967" s="42"/>
+      <c r="J967" s="47"/>
+      <c r="K967" s="47"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="J968" s="42"/>
-      <c r="K968" s="42"/>
+      <c r="J968" s="47"/>
+      <c r="K968" s="47"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="J969" s="42"/>
-      <c r="K969" s="42"/>
+      <c r="J969" s="47"/>
+      <c r="K969" s="47"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="J970" s="42"/>
-      <c r="K970" s="42"/>
+      <c r="J970" s="47"/>
+      <c r="K970" s="47"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="J971" s="42"/>
-      <c r="K971" s="42"/>
+      <c r="J971" s="47"/>
+      <c r="K971" s="47"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="J972" s="42"/>
-      <c r="K972" s="42"/>
+      <c r="J972" s="47"/>
+      <c r="K972" s="47"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="J973" s="42"/>
-      <c r="K973" s="42"/>
+      <c r="J973" s="47"/>
+      <c r="K973" s="47"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="J974" s="42"/>
-      <c r="K974" s="42"/>
+      <c r="J974" s="47"/>
+      <c r="K974" s="47"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="J975" s="42"/>
-      <c r="K975" s="42"/>
+      <c r="J975" s="47"/>
+      <c r="K975" s="47"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="J976" s="42"/>
-      <c r="K976" s="42"/>
+      <c r="J976" s="47"/>
+      <c r="K976" s="47"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="J977" s="42"/>
-      <c r="K977" s="42"/>
+      <c r="J977" s="47"/>
+      <c r="K977" s="47"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="J978" s="42"/>
-      <c r="K978" s="42"/>
+      <c r="J978" s="47"/>
+      <c r="K978" s="47"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="J979" s="42"/>
-      <c r="K979" s="42"/>
+      <c r="J979" s="47"/>
+      <c r="K979" s="47"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="J980" s="42"/>
-      <c r="K980" s="42"/>
+      <c r="J980" s="47"/>
+      <c r="K980" s="47"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="J981" s="42"/>
-      <c r="K981" s="42"/>
+      <c r="J981" s="47"/>
+      <c r="K981" s="47"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="J982" s="42"/>
-      <c r="K982" s="42"/>
+      <c r="J982" s="47"/>
+      <c r="K982" s="47"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="J983" s="42"/>
-      <c r="K983" s="42"/>
+      <c r="J983" s="47"/>
+      <c r="K983" s="47"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="J984" s="42"/>
-      <c r="K984" s="42"/>
+      <c r="J984" s="47"/>
+      <c r="K984" s="47"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="J985" s="42"/>
-      <c r="K985" s="42"/>
+      <c r="J985" s="47"/>
+      <c r="K985" s="47"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="J986" s="42"/>
-      <c r="K986" s="42"/>
+      <c r="J986" s="47"/>
+      <c r="K986" s="47"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="J987" s="42"/>
-      <c r="K987" s="42"/>
+      <c r="J987" s="47"/>
+      <c r="K987" s="47"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="J988" s="42"/>
-      <c r="K988" s="42"/>
+      <c r="J988" s="47"/>
+      <c r="K988" s="47"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="J989" s="42"/>
-      <c r="K989" s="42"/>
+      <c r="J989" s="47"/>
+      <c r="K989" s="47"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="J990" s="42"/>
-      <c r="K990" s="42"/>
+      <c r="J990" s="47"/>
+      <c r="K990" s="47"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="J991" s="42"/>
-      <c r="K991" s="42"/>
+      <c r="J991" s="47"/>
+      <c r="K991" s="47"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="J992" s="42"/>
-      <c r="K992" s="42"/>
+      <c r="J992" s="47"/>
+      <c r="K992" s="47"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="J993" s="42"/>
-      <c r="K993" s="42"/>
+      <c r="J993" s="47"/>
+      <c r="K993" s="47"/>
     </row>
   </sheetData>
   <printOptions/>

--- a/vgp_database/Stoddard_Mountain_laccolith.xlsx
+++ b/vgp_database/Stoddard_Mountain_laccolith.xlsx
@@ -529,11 +529,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -785,7 +785,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.56"/>
+    <col customWidth="1" min="1" max="1" width="10.56"/>
+    <col customWidth="1" min="2" max="2" width="19.22"/>
     <col customWidth="1" min="3" max="3" width="10.0"/>
     <col customWidth="1" min="4" max="4" width="8.56"/>
     <col customWidth="1" min="5" max="5" width="7.67"/>
@@ -1085,22 +1086,22 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="13">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13">
         <v>19.0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <v>351.1</v>
       </c>
-      <c r="F5" s="13">
+      <c r="G5" s="13">
         <v>57.8</v>
       </c>
-      <c r="G5" s="13">
+      <c r="H5" s="13">
         <v>82.2</v>
       </c>
-      <c r="H5" s="13">
+      <c r="I5" s="13">
         <v>3.7</v>
       </c>
-      <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="12"/>
@@ -1711,11 +1712,11 @@
       <c r="B13" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="26">
-        <v>37.6171513446438</v>
-      </c>
-      <c r="D13" s="26">
-        <v>-114.38049487762</v>
+      <c r="C13" s="34">
+        <v>37.53</v>
+      </c>
+      <c r="D13" s="34">
+        <v>-113.67</v>
       </c>
       <c r="E13" s="27">
         <v>6.0</v>
@@ -1979,7 +1980,7 @@
       <c r="AJ15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK15" s="34" t="s">
+      <c r="AK15" s="35" t="s">
         <v>72</v>
       </c>
       <c r="AL15" s="22" t="s">
@@ -2077,7 +2078,7 @@
       <c r="AJ16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK16" s="34" t="s">
+      <c r="AK16" s="35" t="s">
         <v>72</v>
       </c>
       <c r="AL16" s="22" t="s">
@@ -2175,7 +2176,7 @@
       <c r="AJ17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK17" s="34" t="s">
+      <c r="AK17" s="35" t="s">
         <v>72</v>
       </c>
       <c r="AL17" s="22" t="s">
@@ -2273,7 +2274,7 @@
       <c r="AJ18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK18" s="34" t="s">
+      <c r="AK18" s="35" t="s">
         <v>72</v>
       </c>
       <c r="AL18" s="22" t="s">
@@ -2388,7 +2389,7 @@
       <c r="C20" s="26">
         <v>37.55</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>-113.37</v>
       </c>
       <c r="E20" s="27">
@@ -2480,7 +2481,7 @@
       <c r="C21" s="26">
         <v>37.55</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>-113.37</v>
       </c>
       <c r="E21" s="27">
@@ -2572,7 +2573,7 @@
       <c r="C22" s="26">
         <v>37.55</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>-113.37</v>
       </c>
       <c r="E22" s="27">
@@ -2755,11 +2756,11 @@
       <c r="B24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="35">
-        <v>37.45</v>
+      <c r="C24" s="34">
+        <v>37.38</v>
       </c>
       <c r="D24" s="26">
-        <v>-115.3</v>
+        <v>-113.91</v>
       </c>
       <c r="E24" s="27">
         <v>5.0</v>
@@ -2929,7 +2930,7 @@
       <c r="AJ25" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK25" s="34" t="s">
+      <c r="AK25" s="35" t="s">
         <v>72</v>
       </c>
       <c r="AL25" s="22" t="s">
@@ -3027,7 +3028,7 @@
       <c r="AJ26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK26" s="34" t="s">
+      <c r="AK26" s="35" t="s">
         <v>72</v>
       </c>
       <c r="AL26" s="22" t="s">
@@ -3236,7 +3237,7 @@
       <c r="C29" s="26">
         <v>37.6109111390645</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="34">
         <v>-112.626595010335</v>
       </c>
       <c r="E29" s="27">
@@ -3327,7 +3328,7 @@
       <c r="C30" s="26">
         <v>37.59</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="34">
         <v>-112.9</v>
       </c>
       <c r="E30" s="27">
@@ -3415,10 +3416,10 @@
       <c r="B31" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="34">
         <v>37.58</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="34">
         <v>-112.9</v>
       </c>
       <c r="E31" s="27">
@@ -3586,7 +3587,7 @@
       <c r="AJ32" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK32" s="34" t="s">
+      <c r="AK32" s="35" t="s">
         <v>72</v>
       </c>
       <c r="AL32" s="22" t="s">
@@ -3601,10 +3602,10 @@
       <c r="B33" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="34">
         <v>37.55</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="34">
         <v>-113.55</v>
       </c>
       <c r="E33" s="27">
@@ -3677,7 +3678,7 @@
       <c r="AJ33" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK33" s="34" t="s">
+      <c r="AK33" s="35" t="s">
         <v>92</v>
       </c>
       <c r="AL33" s="22" t="s">
@@ -3692,10 +3693,10 @@
       <c r="B34" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <v>37.55</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="34">
         <v>-113.55</v>
       </c>
       <c r="E34" s="27">
@@ -3768,7 +3769,7 @@
       <c r="AJ34" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK34" s="34" t="s">
+      <c r="AK34" s="35" t="s">
         <v>92</v>
       </c>
       <c r="AL34" s="22" t="s">
@@ -3783,10 +3784,10 @@
       <c r="B35" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="34">
         <v>37.55</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="34">
         <v>-113.55</v>
       </c>
       <c r="E35" s="27">
@@ -3859,7 +3860,7 @@
       <c r="AJ35" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK35" s="34" t="s">
+      <c r="AK35" s="35" t="s">
         <v>92</v>
       </c>
       <c r="AL35" s="22" t="s">
@@ -3874,10 +3875,10 @@
       <c r="B36" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="34">
         <v>37.55</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="34">
         <v>-113.55</v>
       </c>
       <c r="E36" s="27">
@@ -3963,10 +3964,10 @@
       <c r="B37" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="34">
         <v>37.55</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="34">
         <v>-113.55</v>
       </c>
       <c r="E37" s="27">
@@ -4039,7 +4040,7 @@
       <c r="AJ37" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AK37" s="34" t="s">
+      <c r="AK37" s="35" t="s">
         <v>92</v>
       </c>
       <c r="AL37" s="22" t="s">
@@ -4054,10 +4055,10 @@
       <c r="B38" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="34">
         <v>37.55</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="34">
         <v>-113.55</v>
       </c>
       <c r="E38" s="27">
@@ -4143,8 +4144,12 @@
       <c r="B39" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="C39" s="34">
+        <v>37.54248675042562</v>
+      </c>
+      <c r="D39" s="34">
+        <v>-113.43295751028744</v>
+      </c>
       <c r="E39" s="38">
         <v>11.0</v>
       </c>
